--- a/report/sitegen_responses.xlsx
+++ b/report/sitegen_responses.xlsx
@@ -409,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -470,14 +470,3206 @@
         <v>200</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://www.skyrizi.co.nz/</v>
+      </c>
+      <c r="B8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://www.skyrizi.co.nz/etc/designs/abbviecorp/desktop/pageclientlibs.min.js</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://www.skyrizi.co.nz/etc/designs/abbviecorp/desktop/pageclientlibs.min.css</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://www.skyrizi.co.nz/etc/designs/abbviecorp/desktop/pageclientlibs/js/jquery.min.js</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://www.skyrizi.co.nz/etc/designs/abbviecorp/desktop/pageclientlibs/fonts/atlas_-_novel_sans_rd_pro_regular-webfont.woff</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://www.skyrizi.co.nz/content/dam/abbviecorp/icons/logo_abbvie.png</v>
+      </c>
+      <c r="B13">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B13"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://www.abbviecareduodopa.nl/</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/css/libraries.min.css</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/images/abbvie-logo-top.png</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/css/main.min.css</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/images/home-img.jpg</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/images/abbvie-logo.png</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://consent.trustarc.com/v2/notice/dnloot</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://consent.trustarc.com/v2/asset/14:02:08.363dnloot_AbbVieID-logo.png</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=dnloot&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.06277026314430745&amp;session=4b43a626-6916-44d8-a964-95583a3a51b4&amp;userType=NEW</v>
+      </c>
+      <c r="B13">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=dnloot&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.765360749041627&amp;session=4b43a626-6916-44d8-a964-95583a3a51b4&amp;userType=NEW</v>
+      </c>
+      <c r="B14">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/js/main.min.js</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/images/login-banner.png</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/js/libraries.min.js</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_A_0.woff2</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_2_0.woff2</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_5_0.woff2</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_6_0.woff2</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=dnloot&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.abbviecareduodopa.nl%2F&amp;category=</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://fonts.googleapis.com/css?family=Open+Sans:400,300</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://www.abbviecareduodopa.nl/</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/css/libraries.min.css</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/images/home-img.jpg</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/images/abbvie-logo-top.png</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/css/main.min.css</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://consent.trustarc.com/v2/notice/dnloot</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://consent.trustarc.com/v2/asset/14:02:08.363dnloot_AbbVieID-logo.png</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/images/abbvie-logo.png</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/js/main.min.js</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/js/libraries.min.js</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/images/login-banner.png</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=dnloot&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.abbviecareduodopa.nl%2F&amp;category=</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=dnloot&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.5876304547333886&amp;session=ed3be679-611a-4545-a8fa-458f57d57211&amp;userType=NEW</v>
+      </c>
+      <c r="B41">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=dnloot&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.2149671001673632&amp;session=ed3be679-611a-4545-a8fa-458f57d57211&amp;userType=NEW</v>
+      </c>
+      <c r="B42">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://fonts.googleapis.com/css?family=Open+Sans:400,300</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_5_0.woff2</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_2_0.woff2</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_6_0.woff2</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_A_0.woff2</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B49"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://www.produodopapatient.se/</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://www.produodopapatient.se/content/dam/abbvie-sitegenerator-ous/produodopapatient/se/sv/style.css</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://www.produodopapatient.se/content/dam/abbvie-sitegenerator-ous/produodopapatient/se/sv/sg-v2-theme-2_Final_theme.css</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Arimo:wght@400;500;600;700&amp;display=swap</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/heroes/item_1/image-extension/item_1.coreimg.png/1700815053198-mal-m-behandling-ny.png</v>
+      </c>
+      <c r="B9">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1685437945987-F%C3%A5gel_Logo_TEST.png</v>
+      </c>
+      <c r="B10">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://www.produodopapatient.se/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://fonts.gstatic.com/s/arimo/v29/P5sMzZCDf9_T_10ZxCE.woff2</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628928530/item_1/image-extension/item_3.coreimg.png/1707126028183-Homepage_Carousal_Mobile.png</v>
+      </c>
+      <c r="B14">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/heroes/item_1/image-extension/item_3.coreimg.png/1707126028183-Homepage_Carousal_Mobile.png</v>
+      </c>
+      <c r="B15">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/header/global_header/image-extension/item_1.coreimg.png/1685437975062.png</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/heroes/item_1/image-extension/item_3.coreimg.png/1707126077888.png</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/heroes/item_1/image-extension/item_1.coreimg.png/1700815073280.png</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628928530/item_1/image-extension/item_1.coreimg.jpg/1692090334904-slide2.jpg</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_copy/par2-5050col/column_control/par1-100col/heroes/item_1/image-extension/item_2.coreimg.png/1692260974566-Group%20794.png</v>
+      </c>
+      <c r="B21">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/item_1685628928530/item_1/image-extension/item_3.coreimg.png/1707126254555.png</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_copy/par2-5050col/column_control/par1-100col/heroes/item_1/image-extension/item_2.coreimg.png/1697721984716.png</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628939983/item_1/image-extension/item_3.coreimg.png/1707126028183-Homepage_Carousal_Mobile.png</v>
+      </c>
+      <c r="B27">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://www.produodopapatient.se/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control/par2-5050col/image_extension/item_1.coreimg.png/1698045712409-parkinson_sjukdom_18000.png</v>
+      </c>
+      <c r="B29">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/item_1685628939983/item_1/image-extension/item_3.coreimg.png/1707212458689.png</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_136850845/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1706535028633-Manmedbarn.png</v>
+      </c>
+      <c r="B31">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control/par2-5050col/image_extension/item_1.coreimg.png/1698045741579.png</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_136850845/par1-100col/column_control_13685/par1-100col/column_control_14991/par2-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1684935318381-ima135483.png</v>
+      </c>
+      <c r="B33">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_136850845/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1706535065930.png</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/image_extension/item_1.coreimg.jpeg/1691674774982-startsida-banner.jpeg</v>
+      </c>
+      <c r="B35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_136850845/par1-100col/column_control_13685_1231370645/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1684935330390-masma46390.png</v>
+      </c>
+      <c r="B36">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628939983/item_1/image-extension/item_1.coreimg.jpg/1692087574699-slide3.jpg</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_136850845/par1-100col/column_control_13685/par1-100col/column_control_14991/par2-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1686834171424.png</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par1-333333col/image_extension/item_1.coreimg.jpg/1707140533263-midjevaska-ny.jpg</v>
+      </c>
+      <c r="B39">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_136850845/par1-100col/column_control_13685_1231370645/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1686834253398.png</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par1-333333col/image_extension/item_1.coreimg.jpg/1707141491928.jpg</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par2-333333col/image_extension/item_1.coreimg.jpg/1707140533027-Under_produktion.jpg</v>
+      </c>
+      <c r="B43">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.produodopapatient.se/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr:content</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/footer/global_footer/column-control/par1-100col/column_control_1221740796/par2-3366col/column_control/par3-333333col/image_extension/item_1.coreimg.png/1685101694513-granskad_footer.png</v>
+      </c>
+      <c r="B45">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://consent.trustarc.com/v2/notice/zoc9yv</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/image_extension/item_1.coreimg.jpeg/1691674901697.jpeg</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par2-333333col/image_extension/item_1.coreimg.jpg/1707140903288.jpg</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=zoc9yv&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8244694555025076&amp;session=883a31bf-8bfa-463d-a93a-2a924f54aff0&amp;userType=NEW</v>
+      </c>
+      <c r="B52">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=zoc9yv&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.11868732768302825&amp;session=883a31bf-8bfa-463d-a93a-2a924f54aff0&amp;userType=NEW</v>
+      </c>
+      <c r="B53">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=zoc9yv&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.produodopapatient.se%2F&amp;category=</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://consent.trustarc.com/v2/asset/10:28:16.488ir1lm6_AbbVieID-logo.png</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control_1221740796/par2-3366col/column_control/par3-333333col/image_extension/item_1.coreimg.png/1685102032907.png</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.produodopapatient.se/</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.produodopapatient.se/content/dam/abbvie-sitegenerator-ous/produodopapatient/se/sv/style.css</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.produodopapatient.se/content/dam/abbvie-sitegenerator-ous/produodopapatient/se/sv/sg-v2-theme-2_Final_theme.css</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Arimo:wght@400;500;600;700&amp;display=swap</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628928530/item_1/image-extension/item_1.coreimg.jpg/1692090334904-slide2.jpg</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628939983/item_1/image-extension/item_1.coreimg.jpg/1692087574699-slide3.jpg</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://www.produodopapatient.se/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://fonts.gstatic.com/s/arimo/v29/P5sMzZCDf9_T_10ZxCE.woff2</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1685437945987-F%C3%A5gel_Logo_TEST.png</v>
+      </c>
+      <c r="B76">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/header/global_header/image-extension/item_1.coreimg.png/1685437975062.png</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/heroes/item_1/image-extension/item_1.coreimg.png/1700815053198-mal-m-behandling-ny.png</v>
+      </c>
+      <c r="B78">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/heroes/item_1/image-extension/item_1.coreimg.png/1700815073280.png</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://consent.trustarc.com/v2/notice/zoc9yv</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/image_extension/item_1.coreimg.jpeg/1691674774982-startsida-banner.jpeg</v>
+      </c>
+      <c r="B81">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/heroes/item_1/image-extension/item_3.coreimg.png/1707126028183-Homepage_Carousal_Mobile.png</v>
+      </c>
+      <c r="B82">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_136850845/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1706535028633-Manmedbarn.png</v>
+      </c>
+      <c r="B83">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control/par2-5050col/image_extension/item_1.coreimg.png/1698045712409-parkinson_sjukdom_18000.png</v>
+      </c>
+      <c r="B84">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par1-333333col/image_extension/item_1.coreimg.jpg/1707140533263-midjevaska-ny.jpg</v>
+      </c>
+      <c r="B85">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_136850845/par1-100col/column_control_13685_1231370645/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1684935330390-masma46390.png</v>
+      </c>
+      <c r="B86">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_136850845/par1-100col/column_control_13685/par1-100col/column_control_14991/par2-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1684935318381-ima135483.png</v>
+      </c>
+      <c r="B87">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628928530/item_1/image-extension/item_3.coreimg.png/1707126028183-Homepage_Carousal_Mobile.png</v>
+      </c>
+      <c r="B88">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/heroes/item_1/image-extension/item_3.coreimg.png/1707126077888.png</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par1-333333col/image_extension/item_1.coreimg.jpg/1707141491928.jpg</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_136850845/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1706535065930.png</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/image_extension/item_1.coreimg.jpeg/1691674901697.jpeg</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_136850845/par1-100col/column_control_13685/par1-100col/column_control_14991/par2-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1686834171424.png</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control/par2-5050col/image_extension/item_1.coreimg.png/1698045741579.png</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_136850845/par1-100col/column_control_13685_1231370645/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1686834253398.png</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par2-333333col/image_extension/item_1.coreimg.jpg/1707140533027-Under_produktion.jpg</v>
+      </c>
+      <c r="B96">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/item_1685628928530/item_1/image-extension/item_3.coreimg.png/1707126254555.png</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628939983/item_1/image-extension/item_3.coreimg.png/1707126028183-Homepage_Carousal_Mobile.png</v>
+      </c>
+      <c r="B98">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/footer/global_footer/column-control/par1-100col/column_control_1221740796/par2-3366col/column_control/par3-333333col/image_extension/item_1.coreimg.png/1685101694513-granskad_footer.png</v>
+      </c>
+      <c r="B99">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par2-333333col/image_extension/item_1.coreimg.jpg/1707140903288.jpg</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/item_1685628939983/item_1/image-extension/item_3.coreimg.png/1707212458689.png</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_copy/par2-5050col/column_control/par1-100col/heroes/item_1/image-extension/item_2.coreimg.png/1692260974566-Group%20794.png</v>
+      </c>
+      <c r="B102">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control_1221740796/par2-3366col/column_control/par3-333333col/image_extension/item_1.coreimg.png/1685102032907.png</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_copy/par2-5050col/column_control/par1-100col/heroes/item_1/image-extension/item_2.coreimg.png/1697721984716.png</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://www.produodopapatient.se/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=zoc9yv&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.5251730521220912&amp;session=be5f25e0-da0a-41b0-9c02-c45b19e44ec4&amp;userType=NEW</v>
+      </c>
+      <c r="B111">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=zoc9yv&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.187138734312851&amp;session=be5f25e0-da0a-41b0-9c02-c45b19e44ec4&amp;userType=NEW</v>
+      </c>
+      <c r="B112">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://www.produodopapatient.se/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr:content</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=zoc9yv&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.produodopapatient.se%2F&amp;category=</v>
+      </c>
+      <c r="B114">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>https://consent.trustarc.com/v2/asset/10:28:16.488ir1lm6_AbbVieID-logo.png</v>
+      </c>
+      <c r="B115">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B115"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://www.test-hcv.nl/</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control/par2-5050col/column_control/par1-100col/image_extension/item_1.coreimg.jpg/1703760015372-header-bg2.jpg</v>
+      </c>
+      <c r="B3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/header/global_header_copy/image-extension/item_1.coreimg.png/1689872363991-AbbVieLogo_Small_Preferred.png</v>
+      </c>
+      <c r="B4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/header/global_header_copy/image-extension/item_1.coreimg.png/1703756707329.png</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control_copy/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707142731410-icon-tattoos-small.png</v>
+      </c>
+      <c r="B9">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/footer/global_footer/column-control/par1-100col/column_control/par1-176617col/column_control/par1-100col/image_extension/item_1.coreimg.png/1705659691648-AbbVie-logo.png</v>
+      </c>
+      <c r="B10">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control/par2-5050col/column_control/par1-100col/image_extension/item_1.coreimg.jpg/1703760218341.jpg</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control_copy/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707218852409.png</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control/par1-176617col/column_control/par1-100col/image_extension/item_1.coreimg.png/1706003179407.png</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_1237953485/par1-100col/column_control_copy/par1-6633col/image_extension_copy/item_1.coreimg.jpg/1703772014491-testen.jpg</v>
+      </c>
+      <c r="B17">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_12379/par1-100col/column_control_copy_/par1-5050col/image_extension_copy/item_1.coreimg.png/1706009944490-flyer-mockup.png</v>
+      </c>
+      <c r="B18">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707142730804-icon-drugs-small.png</v>
+      </c>
+      <c r="B19">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/footer/global_footer/column-control/par1-100col/column_control/par3-176617col/column_control/par1-100col/image_extension_copy/item_1.coreimg.svg/1706698215155-footer-image-UK1.svg</v>
+      </c>
+      <c r="B22">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_1237953485/par1-100col/column_control_copy/par1-6633col/image_extension_copy/item_1.coreimg.jpg/1703773035779.jpg</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control/par3-176617col/column_control/par1-100col/image_extension_copy/item_1.coreimg.svg/1706698228483.svg</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_12379/par1-100col/column_control_copy_/par1-5050col/image_extension_copy/item_1.coreimg.png/1706009952642.png</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707218858001.png</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://www.test-hcv.nl/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://www.test-hcv.nl/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr:content</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://www.test-hcv.nl/</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control/par2-5050col/column_control/par1-100col/image_extension/item_1.coreimg.jpg/1703760015372-header-bg2.jpg</v>
+      </c>
+      <c r="B32">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/header/global_header_copy/image-extension/item_1.coreimg.png/1689872363991-AbbVieLogo_Small_Preferred.png</v>
+      </c>
+      <c r="B34">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control/par2-5050col/column_control/par1-100col/image_extension/item_1.coreimg.jpg/1703760218341.jpg</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_12379/par1-100col/column_control_copy_/par1-5050col/image_extension_copy/item_1.coreimg.png/1706009944490-flyer-mockup.png</v>
+      </c>
+      <c r="B38">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_1237953485/par1-100col/column_control_copy/par1-6633col/image_extension_copy/item_1.coreimg.jpg/1703772014491-testen.jpg</v>
+      </c>
+      <c r="B39">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control_copy/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707142731410-icon-tattoos-small.png</v>
+      </c>
+      <c r="B40">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707142730804-icon-drugs-small.png</v>
+      </c>
+      <c r="B41">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/header/global_header_copy/image-extension/item_1.coreimg.png/1703756707329.png</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/footer/global_footer/column-control/par1-100col/column_control/par3-176617col/column_control/par1-100col/image_extension_copy/item_1.coreimg.svg/1706698215155-footer-image-UK1.svg</v>
+      </c>
+      <c r="B46">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/footer/global_footer/column-control/par1-100col/column_control/par1-176617col/column_control/par1-100col/image_extension/item_1.coreimg.png/1705659691648-AbbVie-logo.png</v>
+      </c>
+      <c r="B47">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.test-hcv.nl/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control_copy/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707218852409.png</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_12379/par1-100col/column_control_copy_/par1-5050col/image_extension_copy/item_1.coreimg.png/1706009952642.png</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707218858001.png</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control/par3-176617col/column_control/par1-100col/image_extension_copy/item_1.coreimg.svg/1706698228483.svg</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control/par1-176617col/column_control/par1-100col/image_extension/item_1.coreimg.png/1706003179407.png</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.test-hcv.nl/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr:content</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_1237953485/par1-100col/column_control_copy/par1-6633col/image_extension_copy/item_1.coreimg.jpg/1703773035779.jpg</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B57"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B165"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://www.reumatikerlinjen.se/</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://www.reumatikerlinjen.se/content/dam/abbvie-sitegenerator-ous/reumatikerlinjen/theme/sg-v2-theme-1_Final_theme.css</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Arimo:wght@400;500;600;700&amp;display=swap</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/heroes/item_1/image-extension/item_1.coreimg.png/1696580352949-Hero_Banner.png</v>
+      </c>
+      <c r="B6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/heroes/item_1/image-extension/item_1.coreimg.png/1696580491725.png</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1696509926598-Reumatikerlinjen_logo.png</v>
+      </c>
+      <c r="B10">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://www.reumatikerlinjen.se/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://fonts.gstatic.com/s/arimo/v29/P5sMzZCDf9_T_10ZxCE.woff2</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par2-25252525col/image_extension_copy/item_1.coreimg.png/1699866405150-Axial%20spondylartrit.png</v>
+      </c>
+      <c r="B13">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par1-25252525col/image_extension/item_1.coreimg.png/1699866405639-Ledg%C3%A5ngsreumatism.png</v>
+      </c>
+      <c r="B14">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par2-25252525col/image_extension_copy/item_1.coreimg.png/1699866465953.png</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/header/global_header/image-extension/item_1.coreimg.png/1696509948999.png</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/heroes/item_1/image-extension/item_3.coreimg.jpg/1698227946993-header-1024x682.jpg</v>
+      </c>
+      <c r="B18">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par4-25252525col/image_extension_copy/item_1.coreimg.png/1699866405267-Barnreumatism.png</v>
+      </c>
+      <c r="B20">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par3-25252525col/image_extension_copy/item_1.coreimg.png/1699866405746-Psoriasisartrit.png</v>
+      </c>
+      <c r="B21">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par3-25252525col/image_extension_copy/item_1.coreimg.png/1699866491886.png</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/heroes/item_1/image-extension/item_3.coreimg.jpg/1698228059643.jpg</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par1-25252525col/image_extension/item_1.coreimg.png/1699866436097.png</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par4-25252525col/image_extension_copy/item_1.coreimg.png/1699866512550.png</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/column_control/par2-5050col/image_extension/item_1.coreimg.png/1697615919561-ladda-ner-puff.png</v>
+      </c>
+      <c r="B29">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1697616575657-puff-1.png</v>
+      </c>
+      <c r="B30">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1697616576387-puff-2.png</v>
+      </c>
+      <c r="B31">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/image_extension/item_1.coreimg.png/1697634068807-gitarr-aktuell.png</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy_/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1697616636248.png</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy_/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1697616676636.png</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1644555684024/image-extension/item_1.coreimg.jpg/1696599844693-Anna-1024x768.jpg</v>
+      </c>
+      <c r="B35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1697189750112-Emma-1024x511.jpg</v>
+      </c>
+      <c r="B36">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://www.reumatikerlinjen.se/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy_/par1-100col/column_control/par2-5050col/image_extension/item_1.coreimg.png/1697615994868.png</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control/par1-100col/heroes_copy/item_1644555684024/image-extension/item_1.coreimg.jpg/1696599932590.jpg</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1697189768259.jpg</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/heroes/item_1644556996686/image-extension/item_1.coreimg.png/1698224047080-puff-3.png</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1697616576387-puff-2.png</v>
+      </c>
+      <c r="B43">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1696599599883/image-extension/item_1.coreimg.jpg/1696599820190-Joanna-Halvardsson-1d-1024x694.jpg</v>
+      </c>
+      <c r="B44">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601570289/image-extension/item_1.coreimg.png/1698224047080-puff-3.png</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1697616575657-puff-1.png</v>
+      </c>
+      <c r="B46">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601573525/image-extension/item_1.coreimg.jpg/1696604364361-DAS-artikel-puff.jpg</v>
+      </c>
+      <c r="B47">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.reumatikerlinjen.se/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr:content</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control/par1-100col/heroes_copy/item_1696599599883/image-extension/item_1.coreimg.jpg/1696600009648.jpg</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1644556996686/image-extension/item_1.coreimg.png/1700148500628-Doktor-fr%C3%A5gar-puff.png</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601573525/image-extension/item_1.coreimg.jpg/1696604453300.jpg</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1698139046150.png</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601575221/image-extension/item_1.coreimg.png/1697636282927-traning-topp-small.png</v>
+      </c>
+      <c r="B53">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1696599615314/image-extension/item_1.coreimg.png/1700148982205-Ingrid-puff.png</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601577469/image-extension/item_1.coreimg.jpg/1696605216818-Ledgangsreumatism-puff.jpg</v>
+      </c>
+      <c r="B55">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1698138847252.png</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601620774/image-extension/item_1.coreimg.jpg/1696606414124-foljsamhet-till-medicinering-puff.jpg</v>
+      </c>
+      <c r="B57">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601620774/image-extension/item_1.coreimg.jpg/1698741678384.jpg</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601577469/image-extension/item_1.coreimg.jpg/1696605550451.jpg</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601579872/image-extension/item_1.coreimg.png/1700148979616-hj%C3%A4lpmedel%20artikel%20-%20puff.png</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601622662/image-extension/item_1.coreimg.jpg/1696606264534-trotthet-och-somn-puff.jpg</v>
+      </c>
+      <c r="B61">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601588568/image-extension/item_1.coreimg.jpg/1696605518162-bluberry2-puff.jpg</v>
+      </c>
+      <c r="B62">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601618440/image-extension/item_1.coreimg.jpg/1696605872039-smarta-vid-reumatisk-sjukdom-puff.jpg</v>
+      </c>
+      <c r="B63">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601626563/image-extension/item_1.coreimg.jpg/1696606414124-foljsamhet-till-medicinering-puff.jpg</v>
+      </c>
+      <c r="B64">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601624663/image-extension/item_1.coreimg.jpg/1696605518624-rokning-topp-cropped2-puff.jpg</v>
+      </c>
+      <c r="B65">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/footer/global_footer_212665/column-control/par1-100col/column_control_copy/par1-3366col/image_extension/item_1.coreimg.png/1696507299258-AbbvieLogVit.png</v>
+      </c>
+      <c r="B66">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601618440/image-extension/item_1.coreimg.jpg/1696605904758.jpg</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601624663/image-extension/item_1.coreimg.jpg/1696606697844.jpg</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601588568/image-extension/item_1.coreimg.jpg/1696605739565.jpg</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601575221/image-extension/item_1.coreimg.png/1697636758981.png</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/footer/global_footer_212665/column-control/par1-100col/column_control_copy/par1-3366col/image_extension/item_1.coreimg.png/1696507370270.png</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://consent.trustarc.com/v2/notice/ir1lm6</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://consent.trustarc.com/v2/asset/10:28:16.488ir1lm6_AbbVieID-logo.png</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601626563/image-extension/item_1.coreimg.jpg/1696608153703.jpg</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601622662/image-extension/item_1.coreimg.jpg/1696606300298.jpg</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=ir1lm6&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7504358357990306&amp;session=faa34104-df80-4177-9ca9-a92301027e3f&amp;userType=NEW</v>
+      </c>
+      <c r="B79">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=ir1lm6&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8071869941400951&amp;session=faa34104-df80-4177-9ca9-a92301027e3f&amp;userType=NEW</v>
+      </c>
+      <c r="B80">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=ir1lm6&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.reumatikerlinjen.se%2F&amp;category=</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://www.reumatikerlinjen.se/</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://www.reumatikerlinjen.se/content/dam/abbvie-sitegenerator-ous/reumatikerlinjen/theme/sg-v2-theme-1_Final_theme.css</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Arimo:wght@400;500;600;700&amp;display=swap</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://www.reumatikerlinjen.se/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://fonts.gstatic.com/s/arimo/v29/P5sMzZCDf9_T_10ZxCE.woff2</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1696509926598-Reumatikerlinjen_logo.png</v>
+      </c>
+      <c r="B92">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/heroes/item_1/image-extension/item_3.coreimg.jpg/1698227946993-header-1024x682.jpg</v>
+      </c>
+      <c r="B94">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/heroes/item_1/image-extension/item_1.coreimg.png/1696580352949-Hero_Banner.png</v>
+      </c>
+      <c r="B95">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par4-25252525col/image_extension_copy/item_1.coreimg.png/1699866405267-Barnreumatism.png</v>
+      </c>
+      <c r="B97">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par3-25252525col/image_extension_copy/item_1.coreimg.png/1699866405746-Psoriasisartrit.png</v>
+      </c>
+      <c r="B98">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par2-25252525col/image_extension_copy/item_1.coreimg.png/1699866405150-Axial%20spondylartrit.png</v>
+      </c>
+      <c r="B99">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par1-25252525col/image_extension/item_1.coreimg.png/1699866405639-Ledg%C3%A5ngsreumatism.png</v>
+      </c>
+      <c r="B101">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/image_extension/item_1.coreimg.png/1697634068807-gitarr-aktuell.png</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/column_control/par2-5050col/image_extension/item_1.coreimg.png/1697615919561-ladda-ner-puff.png</v>
+      </c>
+      <c r="B103">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par1-25252525col/image_extension/item_1.coreimg.png/1699866436097.png</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/header/global_header/image-extension/item_1.coreimg.png/1696509948999.png</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/heroes/item_1/image-extension/item_3.coreimg.jpg/1698228059643.jpg</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://www.reumatikerlinjen.se/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par2-25252525col/image_extension_copy/item_1.coreimg.png/1699866465953.png</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par4-25252525col/image_extension_copy/item_1.coreimg.png/1699866512550.png</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par3-25252525col/image_extension_copy/item_1.coreimg.png/1699866491886.png</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy_/par1-100col/column_control/par2-5050col/image_extension/item_1.coreimg.png/1697615994868.png</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/heroes/item_1/image-extension/item_1.coreimg.png/1696580491725.png</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1697616575657-puff-1.png</v>
+      </c>
+      <c r="B114">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B115">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B116">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy_/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1697616636248.png</v>
+      </c>
+      <c r="B117">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1697616576387-puff-2.png</v>
+      </c>
+      <c r="B118">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>https://www.reumatikerlinjen.se/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr:content</v>
+      </c>
+      <c r="B119">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1644555684024/image-extension/item_1.coreimg.jpg/1696599844693-Anna-1024x768.jpg</v>
+      </c>
+      <c r="B120">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1697189750112-Emma-1024x511.jpg</v>
+      </c>
+      <c r="B121">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/heroes/item_1644556996686/image-extension/item_1.coreimg.png/1698224047080-puff-3.png</v>
+      </c>
+      <c r="B122">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy_/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1697616676636.png</v>
+      </c>
+      <c r="B123">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1696599599883/image-extension/item_1.coreimg.jpg/1696599820190-Joanna-Halvardsson-1d-1024x694.jpg</v>
+      </c>
+      <c r="B124">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1697616575657-puff-1.png</v>
+      </c>
+      <c r="B125">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control/par1-100col/heroes_copy/item_1644555684024/image-extension/item_1.coreimg.jpg/1696599932590.jpg</v>
+      </c>
+      <c r="B126">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1697616576387-puff-2.png</v>
+      </c>
+      <c r="B127">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1697189768259.jpg</v>
+      </c>
+      <c r="B128">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1696599615314/image-extension/item_1.coreimg.png/1700148982205-Ingrid-puff.png</v>
+      </c>
+      <c r="B129">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control/par1-100col/heroes_copy/item_1696599599883/image-extension/item_1.coreimg.jpg/1696600009648.jpg</v>
+      </c>
+      <c r="B130">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601573525/image-extension/item_1.coreimg.jpg/1696604364361-DAS-artikel-puff.jpg</v>
+      </c>
+      <c r="B131">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1698139046150.png</v>
+      </c>
+      <c r="B132">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601570289/image-extension/item_1.coreimg.png/1698224047080-puff-3.png</v>
+      </c>
+      <c r="B133">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1698138847252.png</v>
+      </c>
+      <c r="B134">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601575221/image-extension/item_1.coreimg.png/1697636282927-traning-topp-small.png</v>
+      </c>
+      <c r="B135">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1644556996686/image-extension/item_1.coreimg.png/1700148500628-Doktor-fr%C3%A5gar-puff.png</v>
+      </c>
+      <c r="B136">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601579872/image-extension/item_1.coreimg.png/1700148979616-hj%C3%A4lpmedel%20artikel%20-%20puff.png</v>
+      </c>
+      <c r="B137">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601577469/image-extension/item_1.coreimg.jpg/1696605216818-Ledgangsreumatism-puff.jpg</v>
+      </c>
+      <c r="B138">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601573525/image-extension/item_1.coreimg.jpg/1696604453300.jpg</v>
+      </c>
+      <c r="B139">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601620774/image-extension/item_1.coreimg.jpg/1696606414124-foljsamhet-till-medicinering-puff.jpg</v>
+      </c>
+      <c r="B140">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601588568/image-extension/item_1.coreimg.jpg/1696605518162-bluberry2-puff.jpg</v>
+      </c>
+      <c r="B141">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601618440/image-extension/item_1.coreimg.jpg/1696605872039-smarta-vid-reumatisk-sjukdom-puff.jpg</v>
+      </c>
+      <c r="B142">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601575221/image-extension/item_1.coreimg.png/1697636758981.png</v>
+      </c>
+      <c r="B143">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601622662/image-extension/item_1.coreimg.jpg/1696606264534-trotthet-och-somn-puff.jpg</v>
+      </c>
+      <c r="B144">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601624663/image-extension/item_1.coreimg.jpg/1696605518624-rokning-topp-cropped2-puff.jpg</v>
+      </c>
+      <c r="B145">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601626563/image-extension/item_1.coreimg.jpg/1696606414124-foljsamhet-till-medicinering-puff.jpg</v>
+      </c>
+      <c r="B146">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601577469/image-extension/item_1.coreimg.jpg/1696605550451.jpg</v>
+      </c>
+      <c r="B147">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/footer/global_footer_212665/column-control/par1-100col/column_control_copy/par1-3366col/image_extension/item_1.coreimg.png/1696507299258-AbbvieLogVit.png</v>
+      </c>
+      <c r="B148">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601588568/image-extension/item_1.coreimg.jpg/1696605739565.jpg</v>
+      </c>
+      <c r="B149">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601622662/image-extension/item_1.coreimg.jpg/1696606300298.jpg</v>
+      </c>
+      <c r="B150">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601620774/image-extension/item_1.coreimg.jpg/1698741678384.jpg</v>
+      </c>
+      <c r="B151">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601624663/image-extension/item_1.coreimg.jpg/1696606697844.jpg</v>
+      </c>
+      <c r="B152">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601618440/image-extension/item_1.coreimg.jpg/1696605904758.jpg</v>
+      </c>
+      <c r="B153">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/footer/global_footer_212665/column-control/par1-100col/column_control_copy/par1-3366col/image_extension/item_1.coreimg.png/1696507370270.png</v>
+      </c>
+      <c r="B154">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>https://consent.trustarc.com/v2/notice/ir1lm6</v>
+      </c>
+      <c r="B155">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B156">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B157">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601626563/image-extension/item_1.coreimg.jpg/1696608153703.jpg</v>
+      </c>
+      <c r="B158">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>https://consent.trustarc.com/v2/asset/10:28:16.488ir1lm6_AbbVieID-logo.png</v>
+      </c>
+      <c r="B159">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B160">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=ir1lm6&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.reumatikerlinjen.se%2F&amp;category=</v>
+      </c>
+      <c r="B161">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=ir1lm6&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.11325235366847641&amp;session=ed064f5e-2c46-4d83-9ff1-b6935174a557&amp;userType=NEW</v>
+      </c>
+      <c r="B162">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=ir1lm6&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.3280104906035106&amp;session=ed064f5e-2c46-4d83-9ff1-b6935174a557&amp;userType=NEW</v>
+      </c>
+      <c r="B163">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B164">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B165">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B165"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -494,7 +3686,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.abbviecareduodopa.nl/</v>
+        <v>https://help.abbviepro.com/</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -502,7 +3694,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/css/libraries.min.css</v>
+        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/header/global_header/image-extension/item_2.coreimg.png/1689073198573-Support%20Center%20Logo.png</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -510,7 +3702,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/images/abbvie-logo-top.png</v>
+        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -518,7 +3710,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/css/main.min.css</v>
+        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -526,7 +3718,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/images/home-img.jpg</v>
+        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -534,7 +3726,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/images/abbvie-logo.png</v>
+        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1689073198573-Support%20Center%20Logo.png</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -542,7 +3734,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://consent.trustarc.com/v2/notice/dnloot</v>
+        <v>https://help.abbviepro.com/content/dam/abbvie-sitegenerator-ous/support-center/us/themes/support-center_30-1-2023.css</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -550,7 +3742,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/header/global_header/image-extension/item_3.coreimg.png/1689073198573-Support%20Center%20Logo.png</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -558,7 +3750,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/neuehaasunicapro-regular-webfont.woff2</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -566,7 +3758,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -574,7 +3766,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://consent.trustarc.com/v2/asset/14:02:08.363dnloot_AbbVieID-logo.png</v>
+        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/footer/global_footer/column-control/par1-2575col/image_extension/item_1.coreimg.png/1689599683047-Footer%20Help%20AbbVie%20Pro%20V.2.0.png</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -582,23 +3774,23 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=dnloot&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.06277026314430745&amp;session=4b43a626-6916-44d8-a964-95583a3a51b4&amp;userType=NEW</v>
+        <v>https://help.abbviepro.com/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
       </c>
       <c r="B13">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=dnloot&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.765360749041627&amp;session=4b43a626-6916-44d8-a964-95583a3a51b4&amp;userType=NEW</v>
+        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/footer/global_footer/column-control/par1-2575col/image_extension/item_2.coreimg.png/1689599683047-Footer%20Help%20AbbVie%20Pro%20V.2.0.png</v>
       </c>
       <c r="B14">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/js/main.min.js</v>
+        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -606,7 +3798,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/images/login-banner.png</v>
+        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -614,7 +3806,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/js/libraries.min.js</v>
+        <v>https://help.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -622,7 +3814,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_A_0.woff2</v>
+        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -630,7 +3822,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_2_0.woff2</v>
+        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/footer/global_footer/column-control/par1-2575col/image_extension/item_3.coreimg.png/1689599683047-Footer%20Help%20AbbVie%20Pro%20V.2.0.png</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -638,7 +3830,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_5_0.woff2</v>
+        <v>https://help.abbviepro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -646,7 +3838,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.abbviecareduodopa.nl/app/fonts/33ED05_6_0.woff2</v>
+        <v>https://help.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/support-center/us/en/jcr:content</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -654,7 +3846,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=dnloot&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.abbviecareduodopa.nl%2F&amp;category=</v>
+        <v>https://help.abbviepro.com/</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -662,15 +3854,15 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+        <v>https://federation.abbvie.com/idp/startSSO.ping?PartnerSpId=abbvie%3Asupportcenter%3Aprod%3Asaml20%3Asp</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+        <v>https://federationcrt.abbvie.com/idp/bICir/resumeSAML20/idp/startSSO.ping</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -678,7 +3870,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://fonts.googleapis.com/css?family=Open+Sans:400,300</v>
+        <v>https://federation.abbvie.com/ruxitagentjs_ICANVfgqru_10291240606133530.js</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -691,9 +3883,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -708,7 +3900,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.produodopapatient.se/</v>
+        <v>https://www.optive.co.za/</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -716,7 +3908,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -724,15 +3916,15 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.produodopapatient.se/content/dam/abbvie-sitegenerator-ous/produodopapatient/se/sv/style.css</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1691153340425/image-extension/item_1.coreimg.jpg/1689845718060-Slide1.1.jpg</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.produodopapatient.se/content/dam/abbvie-sitegenerator-ous/produodopapatient/se/sv/sg-v2-theme-2_Final_theme.css</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/header/global_header_copy/image-extension/item_1.coreimg.png/1645737072753-optive-logo1.png</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -740,15 +3932,15 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Arimo:wght@400;500;600;700&amp;display=swap</v>
+        <v>https://www.optive.co.za/content/dam/abbvie-sitegenerator-ous/optive/optive-style-v2.1.css</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -756,7 +3948,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -764,15 +3956,15 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/heroes/item_1/image-extension/item_1.coreimg.png/1700815053198-mal-m-behandling-ny.png</v>
+        <v>https://www.optive.co.za/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
       </c>
       <c r="B9">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1685437945987-F%C3%A5gel_Logo_TEST.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1691153340425/image-extension/item_2.coreimg.jpg/1689845718060-Slide1.1.jpg</v>
       </c>
       <c r="B10">
         <v>302</v>
@@ -780,7 +3972,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.produodopapatient.se/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -788,31 +3980,31 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://fonts.gstatic.com/s/arimo/v29/P5sMzZCDf9_T_10ZxCE.woff2</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1691153340425/image-extension/item_3.coreimg.jpg/1689845718060-Slide1.1.jpg</v>
       </c>
       <c r="B12">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1689851451789/image-extension/item_3.coreimg.jpg/1689846912271-Slide4.4.jpg</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628928530/item_1/image-extension/item_3.coreimg.png/1707126028183-Homepage_Carousal_Mobile.png</v>
+        <v>https://www.optive.co.za/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B14">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/heroes/item_1/image-extension/item_3.coreimg.png/1707126028183-Homepage_Carousal_Mobile.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1650411588804/image-extension/item_2.coreimg.jpg/1689845728476-Slide3.3.jpg</v>
       </c>
       <c r="B15">
         <v>302</v>
@@ -820,7 +4012,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1650411588804/image-extension/item_2.coreimg.jpg/1691476077596.jpg</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -828,7 +4020,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/header/global_header/image-extension/item_1.coreimg.png/1685437975062.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1689851451789/image-extension/item_3.coreimg.jpg/1691476171940.jpg</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -836,7 +4028,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/heroes/item_1/image-extension/item_3.coreimg.png/1707126077888.png</v>
+        <v>https://consent.trustarc.com/v2/notice/zv5r8h</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -844,7 +4036,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/heroes/item_1/image-extension/item_1.coreimg.png/1700815073280.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1691153340425/image-extension/item_1.coreimg.jpg/1691153526308.jpg</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -852,15 +4044,15 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628928530/item_1/image-extension/item_1.coreimg.jpg/1692090334904-slide2.jpg</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1689851451789/image-extension/item_2.coreimg.jpg/1689846912271-Slide4.4.jpg</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_copy/par2-5050col/column_control/par1-100col/heroes/item_1/image-extension/item_2.coreimg.png/1692260974566-Group%20794.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1650411588804/image-extension/item_3.coreimg.jpg/1689845728476-Slide3.3.jpg</v>
       </c>
       <c r="B21">
         <v>302</v>
@@ -868,7 +4060,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/item_1685628928530/item_1/image-extension/item_3.coreimg.png/1707126254555.png</v>
+        <v>https://www.optive.co.za/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -876,39 +4068,39 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.produodopapatient.se/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412147536/image-extension/item_1.coreimg.jpg/1689232842150-FusionUD.jpg</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.produodopapatient.se/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411942237/image-extension/item_1.coreimg.jpg/1689232981886-Quiz.jpg</v>
       </c>
       <c r="B24">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1689872363991-AbbVieLogo_Small_Preferred.png</v>
       </c>
       <c r="B25">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_copy/par2-5050col/column_control/par1-100col/heroes/item_1/image-extension/item_2.coreimg.png/1697721984716.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1650411588804/image-extension/item_1.coreimg.jpg/1689426659752-Slide3.jpg</v>
       </c>
       <c r="B26">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628939983/item_1/image-extension/item_3.coreimg.png/1707126028183-Homepage_Carousal_Mobile.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412170519/image-extension/item_1.coreimg.jpg/1689232834133-GelDrops.jpg</v>
       </c>
       <c r="B27">
         <v>302</v>
@@ -916,7 +4108,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.produodopapatient.se/libs/granite/csrf/token.json</v>
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -924,7 +4116,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control/par2-5050col/image_extension/item_1.coreimg.png/1698045712409-parkinson_sjukdom_18000.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412136128/image-extension/item_1.coreimg.jpg/1689232829671-Fusion.jpg</v>
       </c>
       <c r="B29">
         <v>302</v>
@@ -932,15 +4124,15 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/carousel/item_1685628939983/item_1/image-extension/item_3.coreimg.png/1707212458689.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412158984/image-extension/item_1.coreimg.jpg/1689232845549-Plus.jpg</v>
       </c>
       <c r="B30">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_136850845/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1706535028633-Manmedbarn.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1650634423/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1689232980569-Boat.jpg</v>
       </c>
       <c r="B31">
         <v>302</v>
@@ -948,31 +4140,31 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control/par2-5050col/image_extension/item_1.coreimg.png/1698045741579.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411949602/image-extension/item_1.coreimg.jpg/1689232980805-Eyedrop.jpg</v>
       </c>
       <c r="B32">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_136850845/par1-100col/column_control_13685/par1-100col/column_control_14991/par2-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1684935318381-ima135483.png</v>
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
       </c>
       <c r="B33">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_136850845/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1706535065930.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1653301855830/image-extension/item_1.coreimg.jpg/1689232844812-Omega.jpg</v>
       </c>
       <c r="B34">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/image_extension/item_1.coreimg.jpeg/1691674774982-startsida-banner.jpeg</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1689851451789/image-extension/item_1.coreimg.jpg/1689846912271-Slide4.4.jpg</v>
       </c>
       <c r="B35">
         <v>302</v>
@@ -980,7 +4172,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/column_control_136850845/par1-100col/column_control_13685_1231370645/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1684935330390-masma46390.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/footer/global_footer_1056489842/column-control/par1-100col/column_control_13692_1020011645/par2-5050col/column_control_24729510/par2-7525col/image_extension/item_1.coreimg.jpg/1689855818888-optive-1.jpg</v>
       </c>
       <c r="B36">
         <v>302</v>
@@ -988,7 +4180,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/carousel/item_1685628939983/item_1/image-extension/item_1.coreimg.jpg/1692087574699-slide3.jpg</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1691153340425/image-extension/item_2.coreimg.jpg/1691460232760.jpg</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -996,7 +4188,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_136850845/par1-100col/column_control_13685/par1-100col/column_control_14991/par2-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1686834171424.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1650411588804/image-extension/item_3.coreimg.jpg/1691476104097.jpg</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -1004,15 +4196,15 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par1-333333col/image_extension/item_1.coreimg.jpg/1707140533263-midjevaska-ny.jpg</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1691153340425/image-extension/item_3.coreimg.jpg/1691460270866.jpg</v>
       </c>
       <c r="B39">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.produodopapatient.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411942237/image-extension/item_1.coreimg.jpg/1689427198610.jpg</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -1020,7 +4212,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/column_control_136850845/par1-100col/column_control_13685_1231370645/par1-100col/column_control_14991/par1-5050col/image_extension/item_1.coreimg.png/1686834253398.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1650411588804/image-extension/item_1.coreimg.jpg/1689761566943.jpg</v>
       </c>
       <c r="B41">
         <v>200</v>
@@ -1028,7 +4220,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par1-333333col/image_extension/item_1.coreimg.jpg/1707141491928.jpg</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1689872704151.png</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -1036,15 +4228,15 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par2-333333col/image_extension/item_1.coreimg.jpg/1707140533027-Under_produktion.jpg</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412158984/image-extension/item_1.coreimg.jpg/1689429718458.jpg</v>
       </c>
       <c r="B43">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://www.produodopapatient.se/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr:content</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1689851451789/image-extension/item_1.coreimg.jpg/1689851628911.jpg</v>
       </c>
       <c r="B44">
         <v>200</v>
@@ -1052,15 +4244,15 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/_jcr_content/footer/global_footer/column-control/par1-100col/column_control_1221740796/par2-3366col/column_control/par3-333333col/image_extension/item_1.coreimg.png/1685101694513-granskad_footer.png</v>
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
       </c>
       <c r="B45">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://consent.trustarc.com/v2/notice/zoc9yv</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
       </c>
       <c r="B46">
         <v>200</v>
@@ -1068,7 +4260,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1653301855830/image-extension/item_1.coreimg.jpg/1689430059991.jpg</v>
       </c>
       <c r="B47">
         <v>200</v>
@@ -1076,7 +4268,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411949602/image-extension/item_1.coreimg.jpg/1689427232344.jpg</v>
       </c>
       <c r="B48">
         <v>200</v>
@@ -1084,7 +4276,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/image_extension/item_1.coreimg.jpeg/1691674901697.jpeg</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/footer/global_footer_1056489842/column-control/par1-100col/column_control_13692_1020011645/par2-5050col/column_control_24729510/par2-7525col/image_extension/item_1.coreimg.jpg/1689866704838.jpg</v>
       </c>
       <c r="B49">
         <v>200</v>
@@ -1100,7 +4292,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/body/layout_container_195/column_control/par1-100col/tabs/item_1692024703571/column_control_copy_/par2-333333col/image_extension/item_1.coreimg.jpg/1707140903288.jpg</v>
+        <v>https://www.optive.co.za/libs/granite/csrf/token.json</v>
       </c>
       <c r="B51">
         <v>200</v>
@@ -1108,15 +4300,15 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=zoc9yv&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8244694555025076&amp;session=883a31bf-8bfa-463d-a93a-2a924f54aff0&amp;userType=NEW</v>
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
       </c>
       <c r="B52">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=zoc9yv&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.11868732768302825&amp;session=883a31bf-8bfa-463d-a93a-2a924f54aff0&amp;userType=NEW</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=zv5r8h&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.05989847649099467&amp;session=47893b02-7d51-4545-bd3f-786eefad8767&amp;userType=NEW</v>
       </c>
       <c r="B53">
         <v>202</v>
@@ -1124,15 +4316,15 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=zoc9yv&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.produodopapatient.se%2F&amp;category=</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=zv5r8h&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7979087954315056&amp;session=47893b02-7d51-4545-bd3f-786eefad8767&amp;userType=NEW</v>
       </c>
       <c r="B54">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+        <v>https://consent.trustarc.com/v2/asset/14:46:00.647zv5r8h_AbbVieID-logo.png</v>
       </c>
       <c r="B55">
         <v>200</v>
@@ -1140,7 +4332,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412136128/image-extension/item_1.coreimg.jpg/1689427371528.jpg</v>
       </c>
       <c r="B56">
         <v>200</v>
@@ -1148,7 +4340,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://consent.trustarc.com/v2/asset/10:28:16.488ir1lm6_AbbVieID-logo.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1689851451789/image-extension/item_2.coreimg.jpg/1691476149234.jpg</v>
       </c>
       <c r="B57">
         <v>200</v>
@@ -1156,22 +4348,574 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://www.produodopapatient.se/content/abbvie-sitegenerator-ous/produodopapatient/se/sv/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control_1221740796/par2-3366col/column_control/par3-333333col/image_extension/item_1.coreimg.png/1685102032907.png</v>
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412147536/image-extension/item_1.coreimg.jpg/1689427690638.jpg</v>
       </c>
       <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1650634423/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1689427166128.jpg</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412170519/image-extension/item_1.coreimg.jpg/1689430175494.jpg</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=zv5r8h&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.optive.co.za%2F&amp;category=</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.optive.co.za/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/optive/za/en/jcr:content</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.optive.co.za/</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/header/global_header_copy/image-extension/item_1.coreimg.png/1645737072753-optive-logo1.png</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1691153340425/image-extension/item_1.coreimg.jpg/1689845718060-Slide1.1.jpg</v>
+      </c>
+      <c r="B68">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.optive.co.za/content/dam/abbvie-sitegenerator-ous/optive/optive-style-v2.1.css</v>
+      </c>
+      <c r="B69">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1691153340425/image-extension/item_2.coreimg.jpg/1689845718060-Slide1.1.jpg</v>
+      </c>
+      <c r="B72">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1691153340425/image-extension/item_1.coreimg.jpg/1691153526308.jpg</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://www.optive.co.za/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1691153340425/image-extension/item_2.coreimg.jpg/1691460232760.jpg</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1650411588804/image-extension/item_2.coreimg.jpg/1689845728476-Slide3.3.jpg</v>
+      </c>
+      <c r="B77">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1650411588804/image-extension/item_3.coreimg.jpg/1689845728476-Slide3.3.jpg</v>
+      </c>
+      <c r="B78">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1653301855830/image-extension/item_1.coreimg.jpg/1689232844812-Omega.jpg</v>
+      </c>
+      <c r="B80">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1650411588804/image-extension/item_1.coreimg.jpg/1689426659752-Slide3.jpg</v>
+      </c>
+      <c r="B81">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://www.optive.co.za/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1691153340425/image-extension/item_3.coreimg.jpg/1689845718060-Slide1.1.jpg</v>
+      </c>
+      <c r="B83">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1689851451789/image-extension/item_2.coreimg.jpg/1689846912271-Slide4.4.jpg</v>
+      </c>
+      <c r="B84">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1689872363991-AbbVieLogo_Small_Preferred.png</v>
+      </c>
+      <c r="B85">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1689851451789/image-extension/item_1.coreimg.jpg/1689846912271-Slide4.4.jpg</v>
+      </c>
+      <c r="B86">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://www.optive.co.za/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1689851451789/image-extension/item_3.coreimg.jpg/1689846912271-Slide4.4.jpg</v>
+      </c>
+      <c r="B88">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412136128/image-extension/item_1.coreimg.jpg/1689232829671-Fusion.jpg</v>
+      </c>
+      <c r="B89">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412158984/image-extension/item_1.coreimg.jpg/1689232845549-Plus.jpg</v>
+      </c>
+      <c r="B90">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411949602/image-extension/item_1.coreimg.jpg/1689232980805-Eyedrop.jpg</v>
+      </c>
+      <c r="B91">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412147536/image-extension/item_1.coreimg.jpg/1689232842150-FusionUD.jpg</v>
+      </c>
+      <c r="B92">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1650634423/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1689232980569-Boat.jpg</v>
+      </c>
+      <c r="B93">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412170519/image-extension/item_1.coreimg.jpg/1689232834133-GelDrops.jpg</v>
+      </c>
+      <c r="B94">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/footer/global_footer_1056489842/column-control/par1-100col/column_control_13692_1020011645/par2-5050col/column_control_24729510/par2-7525col/image_extension/item_1.coreimg.jpg/1689855818888-optive-1.jpg</v>
+      </c>
+      <c r="B95">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411942237/image-extension/item_1.coreimg.jpg/1689232981886-Quiz.jpg</v>
+      </c>
+      <c r="B97">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://www.optive.co.za/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://consent.trustarc.com/v2/notice/zv5r8h</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1650411588804/image-extension/item_2.coreimg.jpg/1691476077596.jpg</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1689851451789/image-extension/item_2.coreimg.jpg/1691476149234.jpg</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1691153340425/image-extension/item_3.coreimg.jpg/1691460270866.jpg</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412136128/image-extension/item_1.coreimg.jpg/1689427371528.jpg</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1689872704151.png</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1650411588804/image-extension/item_1.coreimg.jpg/1689761566943.jpg</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412158984/image-extension/item_1.coreimg.jpg/1689429718458.jpg</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/footer/global_footer_1056489842/column-control/par1-100col/column_control_13692_1020011645/par2-5050col/column_control_24729510/par2-7525col/image_extension/item_1.coreimg.jpg/1689866704838.jpg</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://consent.trustarc.com/v2/asset/14:46:00.647zv5r8h_AbbVieID-logo.png</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=zv5r8h&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7222903395612552&amp;session=a02e86bf-e155-4aa9-919a-c6110b86f155&amp;userType=NEW</v>
+      </c>
+      <c r="B112">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=zv5r8h&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.optive.co.za%2F&amp;category=</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1689851451789/image-extension/item_3.coreimg.jpg/1691476171940.jpg</v>
+      </c>
+      <c r="B114">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1650634423/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1689427166128.jpg</v>
+      </c>
+      <c r="B115">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=zv5r8h&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8475459716243157&amp;session=a02e86bf-e155-4aa9-919a-c6110b86f155&amp;userType=NEW</v>
+      </c>
+      <c r="B116">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412147536/image-extension/item_1.coreimg.jpg/1689427690638.jpg</v>
+      </c>
+      <c r="B117">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411949602/image-extension/item_1.coreimg.jpg/1689427232344.jpg</v>
+      </c>
+      <c r="B118">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+      </c>
+      <c r="B119">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412170519/image-extension/item_1.coreimg.jpg/1689430175494.jpg</v>
+      </c>
+      <c r="B120">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1650411588804/image-extension/item_3.coreimg.jpg/1691476104097.jpg</v>
+      </c>
+      <c r="B121">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1653301855830/image-extension/item_1.coreimg.jpg/1689430059991.jpg</v>
+      </c>
+      <c r="B122">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>https://www.optive.co.za/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/optive/za/en/jcr:content</v>
+      </c>
+      <c r="B123">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1689851451789/image-extension/item_1.coreimg.jpg/1689851628911.jpg</v>
+      </c>
+      <c r="B124">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411942237/image-extension/item_1.coreimg.jpg/1689427198610.jpg</v>
+      </c>
+      <c r="B125">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B126">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B127">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B127"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1186,7 +4930,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.test-hcv.nl/</v>
+        <v>https://www.optive.com/sa/ar.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -1194,23 +4938,23 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control/par2-5050col/column_control/par1-100col/image_extension/item_1.coreimg.jpg/1703760015372-header-bg2.jpg</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
       </c>
       <c r="B3">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/header/global_header_copy/image-extension/item_1.coreimg.png/1689872363991-AbbVieLogo_Small_Preferred.png</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
       </c>
       <c r="B4">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -1218,15 +4962,15 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1645737072753-optive-logo1.png</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1234,7 +4978,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/header/global_header_copy/image-extension/item_1.coreimg.png/1703756707329.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1669672310897.png</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -1242,23 +4986,23 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control_copy/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707142731410-icon-tattoos-small.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control/par2-5050col/column_control_copy/par1-5050col/image_extension_copy_167418371/item_1.coreimg.png/1645737013279-AI_Image%20sem%20fundo%202.png</v>
       </c>
       <c r="B9">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/footer/global_footer/column-control/par1-100col/column_control/par1-176617col/column_control/par1-100col/image_extension/item_1.coreimg.png/1705659691648-AbbVie-logo.png</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
       </c>
       <c r="B10">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control/par2-5050col/column_control/par1-100col/image_extension/item_1.coreimg.jpg/1703760218341.jpg</v>
+        <v>https://www.optive.com/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -1266,7 +5010,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+        <v>https://www.optive.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -1274,7 +5018,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control_copy/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707218852409.png</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -1282,7 +5026,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -1290,7 +5034,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control_copy/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737026196-Burning.png</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -1298,47 +5042,47 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control/par1-176617col/column_control/par1-100col/image_extension/item_1.coreimg.png/1706003179407.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383392370-BZ8A8671_grey2.png</v>
       </c>
       <c r="B16">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_1237953485/par1-100col/column_control_copy/par1-6633col/image_extension_copy/item_1.coreimg.jpg/1703772014491-testen.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control_copy/par2-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
       </c>
       <c r="B17">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_12379/par1-100col/column_control_copy_/par1-5050col/image_extension_copy/item_1.coreimg.png/1706009944490-flyer-mockup.png</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
       </c>
       <c r="B18">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707142730804-icon-drugs-small.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_copy/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383763658.png</v>
       </c>
       <c r="B19">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.test-hcv.nl/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/image_extension_3814/item_1.coreimg.png/1666439569689-wave.png</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.test-hcv.nl/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/image_extension_3814/item_1.coreimg.png/1669578922115.png</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -1346,7 +5090,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/_jcr_content/footer/global_footer/column-control/par1-100col/column_control/par3-176617col/column_control/par1-100col/image_extension_copy/item_1.coreimg.svg/1706698215155-footer-image-UK1.svg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_16506/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823032645-take%20a%20Quiz.png</v>
       </c>
       <c r="B22">
         <v>302</v>
@@ -1354,7 +5098,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_1237953485/par1-100col/column_control_copy/par1-6633col/image_extension_copy/item_1.coreimg.jpg/1703773035779.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_21209/par1-100col/column_control_17561/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -1362,23 +5106,23 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control/par3-176617col/column_control/par1-100col/image_extension_copy/item_1.coreimg.svg/1706698228483.svg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_16506/par1-100col/image_extension/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
       </c>
       <c r="B24">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_12379/par1-100col/column_control_copy_/par1-5050col/image_extension_copy/item_1.coreimg.png/1706009952642.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_21209/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
       </c>
       <c r="B25">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.test-hcv.nl/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_16506/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823139916.png</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -1386,7 +5130,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.test-hcv.nl/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr%3acontent/body/column_control_67784_540252685/par1-100col/column_control_34507/par2-5050col/column_control_1937839247/par1-100col/column_control/par1-100col/column_control_209858447/par1-100col/column_control/par1-1783col/column_control/par1-100col/image_extension/item_1.coreimg.png/1707218858001.png</v>
+        <v>https://players.brightcove.net/1029485116001/default_default/index.min.js</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -1394,7 +5138,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.test-hcv.nl/libs/granite/csrf/token.json</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_16506/par1-100col/image_extension/item_1.coreimg.png/1666458506783.png</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -1402,22 +5146,694 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.test-hcv.nl/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/hcv-campaign/nl/nl/jcr:content</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_21209/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
       </c>
       <c r="B29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_12752/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737026196-Burning.png</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_12752/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
+      </c>
+      <c r="B31">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11573/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_10069/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737016152-Tearing.png</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_10069/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
+      </c>
+      <c r="B34">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11028/par1-5050col/image_extension/item_1.coreimg.png/1674383378729-9S4A3716_transparent2.png</v>
+      </c>
+      <c r="B35">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11028/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669294757875-BZ8A8819.jpg</v>
+      </c>
+      <c r="B36">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11028/par1-5050col/image_extension/item_2.coreimg.svg/1645737026760-optive-family-logo.svg</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/image_extension_copy/item_1.coreimg.png/1666440073186-wave3.png</v>
+      </c>
+      <c r="B38">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/footer/global_footer_105648/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1645737019025-optive-logo.png</v>
+      </c>
+      <c r="B39">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_12752/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_10069/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_11028/par1-5050col/image_extension/item_1.coreimg.png/1674383778906.png</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_11028/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669295316840.jpg</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/image_extension_copy/item_1.coreimg.png/1669579156413.png</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316020193112</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316019414112</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6319215469112</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/footer/global_footer_105648/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1669671736932.png</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.optive.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316019699112</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.optive.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr:content</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316021187112</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/0af4702e-fa1f-461d-9424-278032fb251d/main/1280x720/15s61ms/match/image.jpg</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/9a397e24-7f04-4e4f-8882-62c2ffcae27f/main/1280x720/16s53ms/match/image.jpg</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/13c394e5-ff4d-43aa-a24b-3ad0da2cbc8d/main/1280x720/13s845ms/match/image.jpg</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/dbf18fc1-18d9-4f2c-a196-7f8b49a62262/main/1280x720/16s53ms/match/image.jpg</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/a6d62557-efc2-42f5-9a59-20490396c16e/main/1280x720/23s840ms/match/image.jpg</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.optive.com/sa/ar.html</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1645737072753-optive-logo1.png</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
+      </c>
+      <c r="B63">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1669672310897.png</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control/par2-5050col/column_control_copy/par1-5050col/image_extension_copy_167418371/item_1.coreimg.png/1645737013279-AI_Image%20sem%20fundo%202.png</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.optive.com/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.optive.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://players.brightcove.net/1029485116001/default_default/index.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control_copy/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737026196-Burning.png</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control_copy/par2-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383392370-BZ8A8671_grey2.png</v>
+      </c>
+      <c r="B75">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_16506/par1-100col/image_extension/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
+      </c>
+      <c r="B76">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_16506/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823032645-take%20a%20Quiz.png</v>
+      </c>
+      <c r="B77">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/image_extension_copy/item_1.coreimg.png/1666440073186-wave3.png</v>
+      </c>
+      <c r="B78">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/image_extension_3814/item_1.coreimg.png/1666439569689-wave.png</v>
+      </c>
+      <c r="B79">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11028/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669294757875-BZ8A8819.jpg</v>
+      </c>
+      <c r="B80">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/footer/global_footer_105648/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1645737019025-optive-logo.png</v>
+      </c>
+      <c r="B81">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_21209/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
+      </c>
+      <c r="B82">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_21209/par1-100col/column_control_17561/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11028/par1-5050col/image_extension/item_1.coreimg.png/1674383378729-9S4A3716_transparent2.png</v>
+      </c>
+      <c r="B84">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_10069/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
+      </c>
+      <c r="B85">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11028/par1-5050col/image_extension/item_2.coreimg.svg/1645737026760-optive-family-logo.svg</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_12752/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
+      </c>
+      <c r="B87">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_10069/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737016152-Tearing.png</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11573/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_12752/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737026196-Burning.png</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_copy/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383763658.png</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_16506/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823139916.png</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_16506/par1-100col/image_extension/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/image_extension_3814/item_1.coreimg.png/1669578922115.png</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/image_extension_copy/item_1.coreimg.png/1669579156413.png</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/footer/global_footer_105648/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1669671736932.png</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_11028/par1-5050col/image_extension/item_1.coreimg.png/1674383778906.png</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_21209/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_12752/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_10069/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_11028/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669295316840.jpg</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316021187112</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://www.optive.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/dbf18fc1-18d9-4f2c-a196-7f8b49a62262/main/1280x720/16s53ms/match/image.jpg</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://www.optive.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr:content</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6319215469112</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316019414112</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316020193112</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/a6d62557-efc2-42f5-9a59-20490396c16e/main/1280x720/23s840ms/match/image.jpg</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/9a397e24-7f04-4e4f-8882-62c2ffcae27f/main/1280x720/16s53ms/match/image.jpg</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/0af4702e-fa1f-461d-9424-278032fb251d/main/1280x720/15s61ms/match/image.jpg</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316019699112</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/13c394e5-ff4d-43aa-a24b-3ad0da2cbc8d/main/1280x720/13s845ms/match/image.jpg</v>
+      </c>
+      <c r="B113">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B29"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B113"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:B115"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1432,7 +5848,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.reumatikerlinjen.se/</v>
+        <v>https://www.optive.com/sa/en.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -1440,7 +5856,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -1448,7 +5864,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.reumatikerlinjen.se/content/dam/abbvie-sitegenerator-ous/reumatikerlinjen/theme/sg-v2-theme-1_Final_theme.css</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -1456,7 +5872,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Arimo:wght@400;500;600;700&amp;display=swap</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -1464,15 +5880,15 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/heroes/item_1/image-extension/item_1.coreimg.png/1696580352949-Hero_Banner.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
       </c>
       <c r="B6">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/header/global_header_copy/image-extension/item_1.coreimg.png/1645737072753-optive-logo1.png</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1480,7 +5896,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control/par2-5050col/column_control_copy/par1-5050col/image_extension_copy_167418371/item_1.coreimg.png/1645737013279-AI_Image%20sem%20fundo%202.png</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -1488,7 +5904,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/heroes/item_1/image-extension/item_1.coreimg.png/1696580491725.png</v>
+        <v>https://www.optive.com/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -1496,15 +5912,15 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1696509926598-Reumatikerlinjen_logo.png</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
       </c>
       <c r="B10">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.reumatikerlinjen.se/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+        <v>https://www.optive.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -1512,7 +5928,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://fonts.gstatic.com/s/arimo/v29/P5sMzZCDf9_T_10ZxCE.woff2</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -1520,23 +5936,23 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par2-25252525col/image_extension_copy/item_1.coreimg.png/1699866405150-Axial%20spondylartrit.png</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
       </c>
       <c r="B13">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par1-25252525col/image_extension/item_1.coreimg.png/1699866405639-Ledg%C3%A5ngsreumatism.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control_copy/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737026196-Burning.png</v>
       </c>
       <c r="B14">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.reumatikerlinjen.se/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control_copy/par2-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -1544,15 +5960,15 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par2-25252525col/image_extension_copy/item_1.coreimg.png/1699866465953.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383392370-BZ8A8671_grey2.png</v>
       </c>
       <c r="B16">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/header/global_header/image-extension/item_1.coreimg.png/1696509948999.png</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -1560,7 +5976,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/heroes/item_1/image-extension/item_3.coreimg.jpg/1698227946993-header-1024x682.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1650634423/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823032645-take%20a%20Quiz.png</v>
       </c>
       <c r="B18">
         <v>302</v>
@@ -1568,31 +5984,31 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.reumatikerlinjen.se/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/image_extension_381474483/item_1.coreimg.png/1666439569689-wave.png</v>
       </c>
       <c r="B19">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par4-25252525col/image_extension_copy/item_1.coreimg.png/1699866405267-Barnreumatism.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383533995.png</v>
       </c>
       <c r="B20">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_2112620746/par3-25252525col/image_extension_copy/item_1.coreimg.png/1699866405746-Psoriasisartrit.png</v>
+        <v>https://players.brightcove.net/1029485116001/default_default/index.min.js</v>
       </c>
       <c r="B21">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par3-25252525col/image_extension_copy/item_1.coreimg.png/1699866491886.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1650634423/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823139916.png</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -1600,7 +6016,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/heroes/item_1/image-extension/item_3.coreimg.jpg/1698228059643.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/image_extension_381474483/item_1.coreimg.png/1669578922115.png</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -1608,7 +6024,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par1-25252525col/image_extension/item_1.coreimg.png/1699866436097.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_2120901419/par1-100col/column_control_17561/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -1616,23 +6032,23 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1650634423/par1-100col/image_extension/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
       </c>
       <c r="B25">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_2112620746/par4-25252525col/image_extension_copy/item_1.coreimg.png/1699866512550.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_2120901419/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
       </c>
       <c r="B26">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_2120901419/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -1640,7 +6056,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1650634423/par1-100col/image_extension/item_1.coreimg.png/1666458506783.png</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -1648,31 +6064,31 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/column_control/par2-5050col/image_extension/item_1.coreimg.png/1697615919561-ladda-ner-puff.png</v>
+        <v>https://www.optive.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B29">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1697616575657-puff-1.png</v>
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316019521112</v>
       </c>
       <c r="B30">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1697616576387-puff-2.png</v>
+        <v>https://www.optive.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/optive/sa/en/jcr:content</v>
       </c>
       <c r="B31">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/image_extension/item_1.coreimg.png/1697634068807-gitarr-aktuell.png</v>
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316020401112</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -1680,7 +6096,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy_/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1697616636248.png</v>
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316022173112</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -1688,7 +6104,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy_/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1697616676636.png</v>
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316021187112</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -1696,15 +6112,15 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1644555684024/image-extension/item_1.coreimg.jpg/1696599844693-Anna-1024x768.jpg</v>
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316020400112</v>
       </c>
       <c r="B35">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1697189750112-Emma-1024x511.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1275226633/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
       </c>
       <c r="B36">
         <v>302</v>
@@ -1712,7 +6128,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.reumatikerlinjen.se/libs/granite/csrf/token.json</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1275226633/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737026196-Burning.png</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -1720,15 +6136,15 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy_/par1-100col/column_control/par2-5050col/image_extension/item_1.coreimg.png/1697615994868.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
       </c>
       <c r="B38">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control/par1-100col/heroes_copy/item_1644555684024/image-extension/item_1.coreimg.jpg/1696599932590.jpg</v>
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/f495f0fc-4b4f-45a8-9038-4d6461ad6300/main/1280x720/15s50ms/match/image.jpg</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -1736,7 +6152,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1697189768259.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1157360727/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -1744,7 +6160,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy_/par1-100col/heroes/item_1644556996686/image-extension/item_1.coreimg.png/1698224047080-puff-3.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1006950859/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737016152-Tearing.png</v>
       </c>
       <c r="B41">
         <v>200</v>
@@ -1752,15 +6168,15 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://www.reumatikerlinjen.se/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1102803646/par1-5050col/image_extension/item_1.coreimg.png/1674383378729-9S4A3716_transparent2.png</v>
       </c>
       <c r="B42">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1697616576387-puff-2.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1006950859/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
       </c>
       <c r="B43">
         <v>302</v>
@@ -1768,15 +6184,15 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1696599599883/image-extension/item_1.coreimg.jpg/1696599820190-Joanna-Halvardsson-1d-1024x694.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1102803646/par1-5050col/image_extension/item_2.coreimg.svg/1645737026760-optive-family-logo.svg</v>
       </c>
       <c r="B44">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601570289/image-extension/item_1.coreimg.png/1698224047080-puff-3.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1275226633/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
       </c>
       <c r="B45">
         <v>200</v>
@@ -1784,15 +6200,15 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1697616575657-puff-1.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
       </c>
       <c r="B46">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601573525/image-extension/item_1.coreimg.jpg/1696604364361-DAS-artikel-puff.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1102803646/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669294757875-BZ8A8819.jpg</v>
       </c>
       <c r="B47">
         <v>302</v>
@@ -1800,23 +6216,23 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://www.reumatikerlinjen.se/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr:content</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/image_extension/item_1.coreimg.png/1666440073186-wave3.png</v>
       </c>
       <c r="B48">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control/par1-100col/heroes_copy/item_1696599599883/image-extension/item_1.coreimg.jpg/1696600009648.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1645737019025-optive-logo.png</v>
       </c>
       <c r="B49">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1644556996686/image-extension/item_1.coreimg.png/1700148500628-Doktor-fr%C3%A5gar-puff.png</v>
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/76932ec9-4ab0-4f42-bbdc-2d54a2717f28/main/1280x720/13s845ms/match/image.jpg</v>
       </c>
       <c r="B50">
         <v>200</v>
@@ -1824,7 +6240,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601573525/image-extension/item_1.coreimg.jpg/1696604453300.jpg</v>
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/7dc15c6f-17e2-447c-ba72-554f755bc5d1/main/1280x720/16s53ms/match/image.jpg</v>
       </c>
       <c r="B51">
         <v>200</v>
@@ -1832,7 +6248,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1644556993853/image-extension/item_1.coreimg.png/1698139046150.png</v>
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/58007062-45b6-4e86-a15e-8ae4904d9cbd/main/1280x720/15s61ms/match/image.jpg</v>
       </c>
       <c r="B52">
         <v>200</v>
@@ -1840,15 +6256,15 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601575221/image-extension/item_1.coreimg.png/1697636282927-traning-topp-small.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1102803646/par1-5050col/image_extension/item_1.coreimg.png/1674383559323.png</v>
       </c>
       <c r="B53">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control/par1-100col/heroes_copy/item_1696599615314/image-extension/item_1.coreimg.png/1700148982205-Ingrid-puff.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1006950859/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458506783.png</v>
       </c>
       <c r="B54">
         <v>200</v>
@@ -1856,15 +6272,15 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601577469/image-extension/item_1.coreimg.jpg/1696605216818-Ledgangsreumatism-puff.jpg</v>
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/dbf18fc1-18d9-4f2c-a196-7f8b49a62262/main/1280x720/16s53ms/match/image.jpg</v>
       </c>
       <c r="B55">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1/image-extension/item_1.coreimg.png/1698138847252.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1102803646/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669295316840.jpg</v>
       </c>
       <c r="B56">
         <v>200</v>
@@ -1872,15 +6288,15 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601620774/image-extension/item_1.coreimg.jpg/1696606414124-foljsamhet-till-medicinering-puff.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/image_extension/item_1.coreimg.png/1669579156413.png</v>
       </c>
       <c r="B57">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601620774/image-extension/item_1.coreimg.jpg/1698741678384.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1669671736932.png</v>
       </c>
       <c r="B58">
         <v>200</v>
@@ -1888,7 +6304,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601577469/image-extension/item_1.coreimg.jpg/1696605550451.jpg</v>
+        <v>https://www.optive.com/sa/en.html</v>
       </c>
       <c r="B59">
         <v>200</v>
@@ -1896,7 +6312,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601579872/image-extension/item_1.coreimg.png/1700148979616-hj%C3%A4lpmedel%20artikel%20-%20puff.png</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
       </c>
       <c r="B60">
         <v>200</v>
@@ -1904,55 +6320,55 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601622662/image-extension/item_1.coreimg.jpg/1696606264534-trotthet-och-somn-puff.jpg</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
       </c>
       <c r="B61">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601588568/image-extension/item_1.coreimg.jpg/1696605518162-bluberry2-puff.jpg</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
       </c>
       <c r="B62">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601618440/image-extension/item_1.coreimg.jpg/1696605872039-smarta-vid-reumatisk-sjukdom-puff.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
       </c>
       <c r="B63">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601626563/image-extension/item_1.coreimg.jpg/1696606414124-foljsamhet-till-medicinering-puff.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/header/global_header_copy/image-extension/item_1.coreimg.png/1645737072753-optive-logo1.png</v>
       </c>
       <c r="B64">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/body/column_control_copy__254715774/par1-100col/heroes/item_1696601624663/image-extension/item_1.coreimg.jpg/1696605518624-rokning-topp-cropped2-puff.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control/par2-5050col/column_control_copy/par1-5050col/image_extension_copy_167418371/item_1.coreimg.png/1645737013279-AI_Image%20sem%20fundo%202.png</v>
       </c>
       <c r="B65">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/_jcr_content/footer/global_footer_212665/column-control/par1-100col/column_control_copy/par1-3366col/image_extension/item_1.coreimg.png/1696507299258-AbbvieLogVit.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control_copy/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737026196-Burning.png</v>
       </c>
       <c r="B66">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601618440/image-extension/item_1.coreimg.jpg/1696605904758.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control_copy/par2-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
       </c>
       <c r="B67">
         <v>200</v>
@@ -1960,7 +6376,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601624663/image-extension/item_1.coreimg.jpg/1696606697844.jpg</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
       </c>
       <c r="B68">
         <v>200</v>
@@ -1968,7 +6384,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601588568/image-extension/item_1.coreimg.jpg/1696605739565.jpg</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
       </c>
       <c r="B69">
         <v>200</v>
@@ -1976,15 +6392,15 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601575221/image-extension/item_1.coreimg.png/1697636758981.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383392370-BZ8A8671_grey2.png</v>
       </c>
       <c r="B70">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/footer/global_footer_212665/column-control/par1-100col/column_control_copy/par1-3366col/image_extension/item_1.coreimg.png/1696507370270.png</v>
+        <v>https://www.optive.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B71">
         <v>200</v>
@@ -1992,7 +6408,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>https://consent.trustarc.com/v2/notice/ir1lm6</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
       </c>
       <c r="B72">
         <v>200</v>
@@ -2000,7 +6416,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+        <v>https://www.optive.com/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
       </c>
       <c r="B73">
         <v>200</v>
@@ -2008,7 +6424,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
       </c>
       <c r="B74">
         <v>200</v>
@@ -2016,7 +6432,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>https://consent.trustarc.com/v2/asset/10:28:16.488ir1lm6_AbbVieID-logo.png</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_2120901419/par1-100col/column_control_17561/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
       </c>
       <c r="B75">
         <v>200</v>
@@ -2024,7 +6440,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1275226633/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737026196-Burning.png</v>
       </c>
       <c r="B76">
         <v>200</v>
@@ -2032,7 +6448,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601626563/image-extension/item_1.coreimg.jpg/1696608153703.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1157360727/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
       </c>
       <c r="B77">
         <v>200</v>
@@ -2040,7 +6456,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>https://www.reumatikerlinjen.se/content/abbvie-sitegenerator-ous/reumatikerlinjen/se/sv/jcr%3acontent/body/column_control_copy__254715774/par1-100col/heroes/item_1696601622662/image-extension/item_1.coreimg.jpg/1696606300298.jpg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1006950859/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737016152-Tearing.png</v>
       </c>
       <c r="B78">
         <v>200</v>
@@ -2048,54 +6464,310 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=ir1lm6&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7504358357990306&amp;session=faa34104-df80-4177-9ca9-a92301027e3f&amp;userType=NEW</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1102803646/par1-5050col/image_extension/item_2.coreimg.svg/1645737026760-optive-family-logo.svg</v>
       </c>
       <c r="B79">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=ir1lm6&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8071869941400951&amp;session=faa34104-df80-4177-9ca9-a92301027e3f&amp;userType=NEW</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1650634423/par1-100col/image_extension/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
       </c>
       <c r="B80">
-        <v>202</v>
+        <v>302</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1650634423/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823032645-take%20a%20Quiz.png</v>
       </c>
       <c r="B81">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/image_extension_381474483/item_1.coreimg.png/1666439569689-wave.png</v>
       </c>
       <c r="B82">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=ir1lm6&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.reumatikerlinjen.se%2F&amp;category=</v>
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1102803646/par1-5050col/image_extension/item_1.coreimg.png/1674383378729-9S4A3716_transparent2.png</v>
       </c>
       <c r="B83">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_2120901419/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
+      </c>
+      <c r="B84">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1275226633/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
+      </c>
+      <c r="B85">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1645737019025-optive-logo.png</v>
+      </c>
+      <c r="B86">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
+      </c>
+      <c r="B87">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1006950859/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
+      </c>
+      <c r="B88">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1102803646/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669294757875-BZ8A8819.jpg</v>
+      </c>
+      <c r="B89">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/image_extension/item_1.coreimg.png/1666440073186-wave3.png</v>
+      </c>
+      <c r="B90">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383533995.png</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1650634423/par1-100col/image_extension/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1650634423/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823139916.png</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/image_extension_381474483/item_1.coreimg.png/1669578922115.png</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1102803646/par1-5050col/image_extension/item_1.coreimg.png/1674383559323.png</v>
+      </c>
+      <c r="B95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_2120901419/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B97">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1006950859/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B98">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1102803646/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669295316840.jpg</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/image_extension/item_1.coreimg.png/1669579156413.png</v>
+      </c>
+      <c r="B100">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1669671736932.png</v>
+      </c>
+      <c r="B101">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1275226633/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
+      </c>
+      <c r="B102">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://players.brightcove.net/1029485116001/default_default/index.min.js</v>
+      </c>
+      <c r="B103">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316020401112</v>
+      </c>
+      <c r="B104">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316022173112</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316021187112</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316020400112</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316019521112</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://www.optive.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B109">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/f495f0fc-4b4f-45a8-9038-4d6461ad6300/main/1280x720/15s50ms/match/image.jpg</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://www.optive.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/optive/sa/en/jcr:content</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/58007062-45b6-4e86-a15e-8ae4904d9cbd/main/1280x720/15s61ms/match/image.jpg</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/76932ec9-4ab0-4f42-bbdc-2d54a2717f28/main/1280x720/13s845ms/match/image.jpg</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/7dc15c6f-17e2-447c-ba72-554f755bc5d1/main/1280x720/16s53ms/match/image.jpg</v>
+      </c>
+      <c r="B114">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/dbf18fc1-18d9-4f2c-a196-7f8b49a62262/main/1280x720/16s53ms/match/image.jpg</v>
+      </c>
+      <c r="B115">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B83"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B115"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2110,1662 +6782,6 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://help.abbviepro.com/</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/header/global_header/image-extension/item_2.coreimg.png/1689073198573-Support%20Center%20Logo.png</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1689073198573-Support%20Center%20Logo.png</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://help.abbviepro.com/content/dam/abbvie-sitegenerator-ous/support-center/us/themes/support-center_30-1-2023.css</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/header/global_header/image-extension/item_3.coreimg.png/1689073198573-Support%20Center%20Logo.png</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/neuehaasunicapro-regular-webfont.woff2</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/footer/global_footer/column-control/par1-2575col/image_extension/item_1.coreimg.png/1689599683047-Footer%20Help%20AbbVie%20Pro%20V.2.0.png</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>https://help.abbviepro.com/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/footer/global_footer/column-control/par1-2575col/image_extension/item_2.coreimg.png/1689599683047-Footer%20Help%20AbbVie%20Pro%20V.2.0.png</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
-      </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
-      </c>
-      <c r="B16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>https://help.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>https://help.abbviepro.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>https://help.abbviepro.com/content/abbvie-sitegenerator-ous/support-center/us/en/_jcr_content/footer/global_footer/column-control/par1-2575col/image_extension/item_3.coreimg.png/1689599683047-Footer%20Help%20AbbVie%20Pro%20V.2.0.png</v>
-      </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>https://help.abbviepro.com/libs/granite/csrf/token.json</v>
-      </c>
-      <c r="B20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>https://help.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/support-center/us/en/jcr:content</v>
-      </c>
-      <c r="B21">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B21"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B64"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://www.optive.co.za/</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1691153340425/image-extension/item_1.coreimg.jpg/1689845718060-Slide1.1.jpg</v>
-      </c>
-      <c r="B4">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/header/global_header_copy/image-extension/item_1.coreimg.png/1645737072753-optive-logo1.png</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://www.optive.co.za/content/dam/abbvie-sitegenerator-ous/optive/optive-style-v2.1.css</v>
-      </c>
-      <c r="B6">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://www.optive.co.za/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1691153340425/image-extension/item_2.coreimg.jpg/1689845718060-Slide1.1.jpg</v>
-      </c>
-      <c r="B10">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1691153340425/image-extension/item_3.coreimg.jpg/1689845718060-Slide1.1.jpg</v>
-      </c>
-      <c r="B12">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1689851451789/image-extension/item_3.coreimg.jpg/1689846912271-Slide4.4.jpg</v>
-      </c>
-      <c r="B13">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>https://www.optive.co.za/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1650411588804/image-extension/item_2.coreimg.jpg/1689845728476-Slide3.3.jpg</v>
-      </c>
-      <c r="B15">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1650411588804/image-extension/item_2.coreimg.jpg/1691476077596.jpg</v>
-      </c>
-      <c r="B16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1689851451789/image-extension/item_3.coreimg.jpg/1691476171940.jpg</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>https://consent.trustarc.com/v2/notice/zv5r8h</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1691153340425/image-extension/item_1.coreimg.jpg/1691153526308.jpg</v>
-      </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1689851451789/image-extension/item_2.coreimg.jpg/1689846912271-Slide4.4.jpg</v>
-      </c>
-      <c r="B20">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1650411588804/image-extension/item_3.coreimg.jpg/1689845728476-Slide3.3.jpg</v>
-      </c>
-      <c r="B21">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>https://www.optive.co.za/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
-      </c>
-      <c r="B22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412147536/image-extension/item_1.coreimg.jpg/1689232842150-FusionUD.jpg</v>
-      </c>
-      <c r="B23">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411942237/image-extension/item_1.coreimg.jpg/1689232981886-Quiz.jpg</v>
-      </c>
-      <c r="B24">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1689872363991-AbbVieLogo_Small_Preferred.png</v>
-      </c>
-      <c r="B25">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1650411588804/image-extension/item_1.coreimg.jpg/1689426659752-Slide3.jpg</v>
-      </c>
-      <c r="B26">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412170519/image-extension/item_1.coreimg.jpg/1689232834133-GelDrops.jpg</v>
-      </c>
-      <c r="B27">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
-      </c>
-      <c r="B28">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412136128/image-extension/item_1.coreimg.jpg/1689232829671-Fusion.jpg</v>
-      </c>
-      <c r="B29">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412158984/image-extension/item_1.coreimg.jpg/1689232845549-Plus.jpg</v>
-      </c>
-      <c r="B30">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1650634423/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1689232980569-Boat.jpg</v>
-      </c>
-      <c r="B31">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411949602/image-extension/item_1.coreimg.jpg/1689232980805-Eyedrop.jpg</v>
-      </c>
-      <c r="B32">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
-      </c>
-      <c r="B33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1653301855830/image-extension/item_1.coreimg.jpg/1689232844812-Omega.jpg</v>
-      </c>
-      <c r="B34">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/body/carousel/item_1689851451789/image-extension/item_1.coreimg.jpg/1689846912271-Slide4.4.jpg</v>
-      </c>
-      <c r="B35">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/_jcr_content/footer/global_footer_1056489842/column-control/par1-100col/column_control_13692_1020011645/par2-5050col/column_control_24729510/par2-7525col/image_extension/item_1.coreimg.jpg/1689855818888-optive-1.jpg</v>
-      </c>
-      <c r="B36">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1691153340425/image-extension/item_2.coreimg.jpg/1691460232760.jpg</v>
-      </c>
-      <c r="B37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1650411588804/image-extension/item_3.coreimg.jpg/1691476104097.jpg</v>
-      </c>
-      <c r="B38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1691153340425/image-extension/item_3.coreimg.jpg/1691460270866.jpg</v>
-      </c>
-      <c r="B39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411942237/image-extension/item_1.coreimg.jpg/1689427198610.jpg</v>
-      </c>
-      <c r="B40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1650411588804/image-extension/item_1.coreimg.jpg/1689761566943.jpg</v>
-      </c>
-      <c r="B41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1689872704151.png</v>
-      </c>
-      <c r="B42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412158984/image-extension/item_1.coreimg.jpg/1689429718458.jpg</v>
-      </c>
-      <c r="B43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1689851451789/image-extension/item_1.coreimg.jpg/1689851628911.jpg</v>
-      </c>
-      <c r="B44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
-      </c>
-      <c r="B45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
-      </c>
-      <c r="B46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1653301855830/image-extension/item_1.coreimg.jpg/1689430059991.jpg</v>
-      </c>
-      <c r="B47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1650634423/par1-100col/heroes_copy/item_1650411949602/image-extension/item_1.coreimg.jpg/1689427232344.jpg</v>
-      </c>
-      <c r="B48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/footer/global_footer_1056489842/column-control/par1-100col/column_control_13692_1020011645/par2-5050col/column_control_24729510/par2-7525col/image_extension/item_1.coreimg.jpg/1689866704838.jpg</v>
-      </c>
-      <c r="B49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
-      </c>
-      <c r="B50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>https://www.optive.co.za/libs/granite/csrf/token.json</v>
-      </c>
-      <c r="B51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>https://www.optive.co.za/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
-      </c>
-      <c r="B52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=zv5r8h&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.05989847649099467&amp;session=47893b02-7d51-4545-bd3f-786eefad8767&amp;userType=NEW</v>
-      </c>
-      <c r="B53">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=zv5r8h&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7979087954315056&amp;session=47893b02-7d51-4545-bd3f-786eefad8767&amp;userType=NEW</v>
-      </c>
-      <c r="B54">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>https://consent.trustarc.com/v2/asset/14:46:00.647zv5r8h_AbbVieID-logo.png</v>
-      </c>
-      <c r="B55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412136128/image-extension/item_1.coreimg.jpg/1689427371528.jpg</v>
-      </c>
-      <c r="B56">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/carousel/item_1689851451789/image-extension/item_2.coreimg.jpg/1691476149234.jpg</v>
-      </c>
-      <c r="B57">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412147536/image-extension/item_1.coreimg.jpg/1689427690638.jpg</v>
-      </c>
-      <c r="B58">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1650634423/par1-100col/heroes_copy/item_1/image-extension/item_1.coreimg.jpg/1689427166128.jpg</v>
-      </c>
-      <c r="B59">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>https://www.optive.co.za/content/abbvie-sitegenerator-ous/optive/za/en/jcr%3acontent/body/column_control_1006950859/par1-100col/carousel_item_copy_c_71306941/item_1650412170519/image-extension/item_1.coreimg.jpg/1689430175494.jpg</v>
-      </c>
-      <c r="B60">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=zv5r8h&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.optive.co.za%2F&amp;category=</v>
-      </c>
-      <c r="B61">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>https://www.optive.co.za/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/optive/za/en/jcr:content</v>
-      </c>
-      <c r="B62">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
-      </c>
-      <c r="B63">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
-      </c>
-      <c r="B64">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B64"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://www.optive.com/sa/ar.html</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
-      </c>
-      <c r="B6">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1645737072753-optive-logo1.png</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1669672310897.png</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control/par2-5050col/column_control_copy/par1-5050col/image_extension_copy_167418371/item_1.coreimg.png/1645737013279-AI_Image%20sem%20fundo%202.png</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://www.optive.com/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://www.optive.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control_copy/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737026196-Burning.png</v>
-      </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383392370-BZ8A8671_grey2.png</v>
-      </c>
-      <c r="B16">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_copy/par1-5050col/column_control/par1-100col/column_control_copy/par2-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_copy/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383763658.png</v>
-      </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/image_extension_3814/item_1.coreimg.png/1666439569689-wave.png</v>
-      </c>
-      <c r="B20">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/image_extension_3814/item_1.coreimg.png/1669578922115.png</v>
-      </c>
-      <c r="B21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_16506/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823032645-take%20a%20Quiz.png</v>
-      </c>
-      <c r="B22">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_21209/par1-100col/column_control_17561/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
-      </c>
-      <c r="B23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_16506/par1-100col/image_extension/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
-      </c>
-      <c r="B24">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_21209/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
-      </c>
-      <c r="B25">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_16506/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823139916.png</v>
-      </c>
-      <c r="B26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>https://players.brightcove.net/1029485116001/default_default/index.min.js</v>
-      </c>
-      <c r="B27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_16506/par1-100col/image_extension/item_1.coreimg.png/1666458506783.png</v>
-      </c>
-      <c r="B28">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_21209/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
-      </c>
-      <c r="B29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_12752/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737026196-Burning.png</v>
-      </c>
-      <c r="B30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_12752/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
-      </c>
-      <c r="B31">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11573/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
-      </c>
-      <c r="B32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_10069/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737016152-Tearing.png</v>
-      </c>
-      <c r="B33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_10069/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
-      </c>
-      <c r="B34">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11028/par1-5050col/image_extension/item_1.coreimg.png/1674383378729-9S4A3716_transparent2.png</v>
-      </c>
-      <c r="B35">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11028/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669294757875-BZ8A8819.jpg</v>
-      </c>
-      <c r="B36">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/column_control_11028/par1-5050col/image_extension/item_2.coreimg.svg/1645737026760-optive-family-logo.svg</v>
-      </c>
-      <c r="B37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/body/image_extension_copy/item_1.coreimg.png/1666440073186-wave3.png</v>
-      </c>
-      <c r="B38">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/_jcr_content/footer/global_footer_105648/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1645737019025-optive-logo.png</v>
-      </c>
-      <c r="B39">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_12752/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
-      </c>
-      <c r="B40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_10069/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458506783.png</v>
-      </c>
-      <c r="B41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_11028/par1-5050col/image_extension/item_1.coreimg.png/1674383778906.png</v>
-      </c>
-      <c r="B42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/column_control_11028/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669295316840.jpg</v>
-      </c>
-      <c r="B43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/body/image_extension_copy/item_1.coreimg.png/1669579156413.png</v>
-      </c>
-      <c r="B44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316020193112</v>
-      </c>
-      <c r="B45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316019414112</v>
-      </c>
-      <c r="B46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6319215469112</v>
-      </c>
-      <c r="B47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr%3acontent/footer/global_footer_105648/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1669671736932.png</v>
-      </c>
-      <c r="B48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>https://www.optive.com/libs/granite/csrf/token.json</v>
-      </c>
-      <c r="B49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316019699112</v>
-      </c>
-      <c r="B50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>https://www.optive.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/optive/sa/ar/jcr:content</v>
-      </c>
-      <c r="B51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316021187112</v>
-      </c>
-      <c r="B52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/0af4702e-fa1f-461d-9424-278032fb251d/main/1280x720/15s61ms/match/image.jpg</v>
-      </c>
-      <c r="B53">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/9a397e24-7f04-4e4f-8882-62c2ffcae27f/main/1280x720/16s53ms/match/image.jpg</v>
-      </c>
-      <c r="B54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/13c394e5-ff4d-43aa-a24b-3ad0da2cbc8d/main/1280x720/13s845ms/match/image.jpg</v>
-      </c>
-      <c r="B55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/dbf18fc1-18d9-4f2c-a196-7f8b49a62262/main/1280x720/16s53ms/match/image.jpg</v>
-      </c>
-      <c r="B56">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/a6d62557-efc2-42f5-9a59-20490396c16e/main/1280x720/23s840ms/match/image.jpg</v>
-      </c>
-      <c r="B57">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B57"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://www.optive.com/sa/en.html</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/header/global_header_copy/image-extension/item_1.coreimg.png/1645737072753-optive-logo1.png</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control/par2-5050col/column_control_copy/par1-5050col/image_extension_copy_167418371/item_1.coreimg.png/1645737013279-AI_Image%20sem%20fundo%202.png</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://www.optive.com/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://www.optive.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control_copy/par1-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737026196-Burning.png</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/column_control_copy/par2-5050col/column_control/par1-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
-      </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383392370-BZ8A8671_grey2.png</v>
-      </c>
-      <c r="B16">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>https://www.optive.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1650634423/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823032645-take%20a%20Quiz.png</v>
-      </c>
-      <c r="B18">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/image_extension_381474483/item_1.coreimg.png/1666439569689-wave.png</v>
-      </c>
-      <c r="B19">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control/par1-5050col/column_control/par1-100col/image_extension_copy/item_1.coreimg.png/1674383533995.png</v>
-      </c>
-      <c r="B20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>https://players.brightcove.net/1029485116001/default_default/index.min.js</v>
-      </c>
-      <c r="B21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1650634423/par1-100col/column_control_18567/par2-5050col/image_extension_copy/item_1.coreimg.png/1666823139916.png</v>
-      </c>
-      <c r="B22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/image_extension_381474483/item_1.coreimg.png/1669578922115.png</v>
-      </c>
-      <c r="B23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_2120901419/par1-100col/column_control_17561/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737012044-AI_Image%20sem%20fundo%201.png</v>
-      </c>
-      <c r="B24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1650634423/par1-100col/image_extension/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
-      </c>
-      <c r="B25">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_2120901419/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
-      </c>
-      <c r="B26">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_2120901419/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
-      </c>
-      <c r="B27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1650634423/par1-100col/image_extension/item_1.coreimg.png/1666458506783.png</v>
-      </c>
-      <c r="B28">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>https://www.optive.com/libs/granite/csrf/token.json</v>
-      </c>
-      <c r="B29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316019521112</v>
-      </c>
-      <c r="B30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>https://www.optive.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/optive/sa/en/jcr:content</v>
-      </c>
-      <c r="B31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316020401112</v>
-      </c>
-      <c r="B32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316022173112</v>
-      </c>
-      <c r="B33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316021187112</v>
-      </c>
-      <c r="B34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6316020400112</v>
-      </c>
-      <c r="B35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1275226633/par1-100col/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
-      </c>
-      <c r="B36">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1275226633/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737026196-Burning.png</v>
-      </c>
-      <c r="B37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/image_extension_copy/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
-      </c>
-      <c r="B38">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/f495f0fc-4b4f-45a8-9038-4d6461ad6300/main/1280x720/15s50ms/match/image.jpg</v>
-      </c>
-      <c r="B39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1157360727/par2-5050col/image_extension_copy/item_1.coreimg.png/1645737024058-Stinging.png</v>
-      </c>
-      <c r="B40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1006950859/par1-100col/column_control_41766/par2-5050col/image_extension/item_1.coreimg.png/1645737016152-Tearing.png</v>
-      </c>
-      <c r="B41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1102803646/par1-5050col/image_extension/item_1.coreimg.png/1674383378729-9S4A3716_transparent2.png</v>
-      </c>
-      <c r="B42">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1006950859/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458467739-Gradient%202000X70.png</v>
-      </c>
-      <c r="B43">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1102803646/par1-5050col/image_extension/item_2.coreimg.svg/1645737026760-optive-family-logo.svg</v>
-      </c>
-      <c r="B44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1275226633/par1-100col/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
-      </c>
-      <c r="B45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/image_extension_copy/item_1.coreimg.png/1666458506783.png</v>
-      </c>
-      <c r="B46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/column_control_1102803646/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669294757875-BZ8A8819.jpg</v>
-      </c>
-      <c r="B47">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/body/image_extension/item_1.coreimg.png/1666440073186-wave3.png</v>
-      </c>
-      <c r="B48">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/_jcr_content/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1645737019025-optive-logo.png</v>
-      </c>
-      <c r="B49">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/76932ec9-4ab0-4f42-bbdc-2d54a2717f28/main/1280x720/13s845ms/match/image.jpg</v>
-      </c>
-      <c r="B50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/7dc15c6f-17e2-447c-ba72-554f755bc5d1/main/1280x720/16s53ms/match/image.jpg</v>
-      </c>
-      <c r="B51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/58007062-45b6-4e86-a15e-8ae4904d9cbd/main/1280x720/15s61ms/match/image.jpg</v>
-      </c>
-      <c r="B52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1102803646/par1-5050col/image_extension/item_1.coreimg.png/1674383559323.png</v>
-      </c>
-      <c r="B53">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1006950859/par1-100col/image_extension_copy_1070530053/item_1.coreimg.png/1666458506783.png</v>
-      </c>
-      <c r="B54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/jit/1029485116001/dbf18fc1-18d9-4f2c-a196-7f8b49a62262/main/1280x720/16s53ms/match/image.jpg</v>
-      </c>
-      <c r="B55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/column_control_1102803646/par1-5050col/image_extension_861109654/item_1.coreimg.jpg/1669295316840.jpg</v>
-      </c>
-      <c r="B56">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/body/image_extension/item_1.coreimg.png/1669579156413.png</v>
-      </c>
-      <c r="B57">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>https://www.optive.com/content/abbvie-sitegenerator-ous/optive/sa/en/jcr%3acontent/footer/global_footer_1056489842/column-control/par1-100col/column_control/par1-5050col/image_extension/item_1.coreimg.png/1669671736932.png</v>
-      </c>
-      <c r="B58">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B58"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
         <v>https://www.arzneimittelsuche.abbvie.de/</v>
       </c>
       <c r="B2">
@@ -4012,9 +7028,257 @@
         <v>200</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/content/dam/abbvie-sitegenerator-ous/arzneimittelsuche/styles-arzneimittelsuche/abvamsearc_twtdh1.css</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/content/abbvie-sitegenerator-ous/arzneimittelsuche/de/de/_jcr_content/body/heroes/item_1/image-extension/item_1.coreimg.jpg/1669218223538-arzneimittelsuche-header-variant.jpg</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/content/abbvie-sitegenerator-ous/arzneimittelsuche/de/de/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1661239223502-abbvie.png</v>
+      </c>
+      <c r="B39">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/content/abbvie-sitegenerator-ous/arzneimittelsuche/de/de/_jcr_content/body/heroes/item_1/image-extension/item_2.coreimg.png/1666102374592-arzneimittelsuche-home-headerbild-mobile.png</v>
+      </c>
+      <c r="B43">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/content/abbvie-sitegenerator-ous/arzneimittelsuche/de/de/jcr%3acontent/header/global_header/image-extension/item_1.coreimg.png/1661242166529.png</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://consent.trustarc.com/v2/notice/oc870e</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/content/dam/abbvie-sitegenerator-ous/arzneimittelsuche/fonts/roboto-v30-latin-regular.woff2</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/content/abbvie-sitegenerator-ous/arzneimittelsuche/de/de/_jcr_content/body/heroes/item_1/image-extension/item_3.coreimg.png/1666102374592-arzneimittelsuche-home-headerbild-mobile.png</v>
+      </c>
+      <c r="B48">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/content/dam/abbvie-sitegenerator-ous/arzneimittelsuche/fonts/sackers_gothic_light_at-webfont.woff</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/content/abbvie-sitegenerator-ous/arzneimittelsuche/de/de/jcr%3acontent/body/heroes/item_1/image-extension/item_2.coreimg.png/1666102480707.png</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://consent.trustarc.com/v2/asset/10:25:07.704oc870e_AbbVieID-logo.png</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/arzneimittelsuche/de/de/jcr:content</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=oc870e&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7552214819122449&amp;session=6a7d14da-0683-421a-8440-7f1122a2aab2&amp;userType=NEW</v>
+      </c>
+      <c r="B60">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=oc870e&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8215227892919932&amp;session=6a7d14da-0683-421a-8440-7f1122a2aab2&amp;userType=NEW</v>
+      </c>
+      <c r="B61">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.arzneimittelsuche.abbvie.de/content/abbvie-sitegenerator-ous/arzneimittelsuche/de/de/jcr%3acontent/body/heroes/item_1/image-extension/item_3.coreimg.png/1668701554507.png</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=oc870e&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.arzneimittelsuche.abbvie.de%2F&amp;category=</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B32"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B63"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4091,7 +7355,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4464,16 +7728,376 @@
         <v>200</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.acne-inversa.at/</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.acne-inversa.at/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/header/global_header/image-extension/item_1.coreimg.png/1686816434853-Logo-v2-rotated.png</v>
+      </c>
+      <c r="B49">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/body/heroes/item_1/image-extension/item_1.coreimg.jpg/1687940106416-230627-AV-AcneInversa-Banner-1100x300px4.jpg</v>
+      </c>
+      <c r="B50">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.acne-inversa.at/content/dam/abbvie-sitegenerator-ous/acne-inversa/at/de/sg-v2-theme-3_Final_theme.css</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Montserrat:wght@400;600;700&amp;family=Raleway:wght@900&amp;display=swap</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.acne-inversa.at/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/jcr%3acontent/header/global_header/image-extension/item_1.coreimg.png/1686816515646.png</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/jcr%3acontent/body/heroes/item_1/image-extension/item_1.coreimg.jpg/1687940138265.jpg</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/body/heroes/item_1/image-extension/item_2.coreimg.jpg/1687940106416-230627-AV-AcneInversa-Banner-1100x300px4.jpg</v>
+      </c>
+      <c r="B56">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.acne-inversa.at/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/body/heroes/item_1/image-extension/item_3.coreimg.png/1700138535758-mobile-banner.png</v>
+      </c>
+      <c r="B58">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/jcr%3acontent/body/heroes/item_1/image-extension/item_2.coreimg.jpg/1699614834967.jpg</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.acne-inversa.at/cdn-cgi/scripts/5c5dd728/cloudflare-static/email-decode.min.js</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/jcr%3acontent/body/heroes/item_1/image-extension/item_3.coreimg.png/1700138561255.png</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/body/column_control_829591480/par1-100col/heroes/item_1/image-extension/item_1.coreimg.jpg/1706017266960-iStock-1398385349-fizkes.jpg</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/body/column_control_1972118690/par1-100col/heroes/item_1/image-extension/item_1.coreimg.jpg/1706016530704-iStock-495828773-Tom%20Merton.jpg</v>
+      </c>
+      <c r="B63">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/body/column_control_829591480/par1-100col/heroes/item_1680512093190/image-extension/item_1.coreimg.jpg/1706031128601-iStock-1300739259-fizkes.jpg</v>
+      </c>
+      <c r="B64">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://fonts.gstatic.com/s/montserrat/v26/JTUSjIg1_i6t8kCHKm459Wlhyw.woff2</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/body/column_control_1972118690/par1-100col/heroes/item_1680517138489/image-extension/item_1.coreimg.jpg/1687162275555-Arztgespr%C3%A4ch.jpg</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.acne-inversa.at/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://www.acne-inversa.at/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/footer/global_footer/column-control/par1-100col/column_control/par1-333333col/image_extension/item_1.coreimg.png/1686813812746-AbbVieLogo_white.png</v>
+      </c>
+      <c r="B69">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/footer/global_footer/column-control/par1-100col/column_control/par1-333333col/image_extension/item_3.coreimg.png/1686813812746-AbbVieLogo_white.png</v>
+      </c>
+      <c r="B70">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.acne-inversa.at/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/_jcr_content/body/column_control_829591480/par1-100col/heroes/item_1680512090039/image-extension/item_1.coreimg.jpg/1706017207964-iStock-1473559425-ljubaphoto.jpg</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://consent.trustarc.com/v2/notice/vryz7d</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control/par1-333333col/image_extension/item_1.coreimg.png/1686813841850.png</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/jcr%3acontent/footer/global_footer/column-control/par1-100col/column_control/par1-333333col/image_extension/item_3.coreimg.png/1706035013259.png</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/jcr%3acontent/body/column_control_1972118690/par1-100col/heroes/item_1/image-extension/item_1.coreimg.jpg/1706016564974.jpg</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.acne-inversa.at/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://www.acne-inversa.at/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://www.acne-inversa.at/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://www.acne-inversa.at/content/abbvie-sitegenerator-ous/acne-inversa/at/de/jcr%3acontent/body/column_control_829591480/par1-100col/heroes/item_1680512093190/image-extension/item_1.coreimg.jpg/1706031159296.jpg</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://www.acne-inversa.at/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://www.acne-inversa.at/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/acne-inversa/at/de/jcr:content</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=vryz7d&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.acne-inversa.at%2F&amp;category=</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=vryz7d&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.26710558914938787&amp;session=fcabbee1-d79d-4339-b900-e1b7973b7a3d&amp;userType=NEW</v>
+      </c>
+      <c r="B87">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=vryz7d&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.8145574002522817&amp;session=fcabbee1-d79d-4339-b900-e1b7973b7a3d&amp;userType=NEW</v>
+      </c>
+      <c r="B88">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://consent.trustarc.com/v2/asset/13:17:21.658vryz7d_AbbVieID-logo.png</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B91"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4846,9 +8470,369 @@
         <v>200</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.sagliginicinkesfet.com/</v>
+      </c>
+      <c r="B47">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.sagliginicinkesfet.com/anasayfa.html</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/_jcr_content/body/column_control/par1-100col/carousel_copy_copy/item_1673267254474/par1-100col/image_extension/item_3.coreimg.png/1680590619232-Sagliginicinkesfet_Gorsel+4-01.png</v>
+      </c>
+      <c r="B49">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.sagliginicinkesfet.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.css</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.sagliginicinkesfet.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.css</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.sagliginicinkesfet.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.css</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/_jcr_content/header/column_control_copy/par1-100col/global_header/image-extension/item_2.coreimg.jpg/1678172277379-Sagliginicinkesfet_Logo+2-03.jpg</v>
+      </c>
+      <c r="B53">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/_jcr_content/body/column_control/par1-100col/carousel_copy_copy/item_1673267402020/par1-100col/image_extension/item_3.coreimg.png/1680590610941-Sagliginicinkesfet_Gorsel+4-03.png</v>
+      </c>
+      <c r="B54">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/jcr%3acontent/body/column_control/par1-100col/carousel_copy_copy/item_1673267254474/par1-100col/image_extension/item_3.coreimg.png/1680590631880.png</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://www.sagliginicinkesfet.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-dependencies.min.js</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://www.sagliginicinkesfet.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/_jcr_content/body/column_control_618754938/par2-176617col/column_control_copy/par1-100col/image_extension/item_1.coreimg.png/1679057341723-Sagliginicinkesfet_Gorsel+3-18.png</v>
+      </c>
+      <c r="B58">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://www.sagliginicinkesfet.com/etc.clientlibs/core/wcm/components/commons/site/clientlibs/container.min.js</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/_jcr_content/body/column_control_copy/par1-100col/carousel_copy_copy/item_1673267277314/par1-100col/image_extension/item_3.coreimg.png/1700119817370-Sagliginicinkesfet_Gorsel+4-25.png</v>
+      </c>
+      <c r="B60">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/_jcr_content/body/column_control_249240009/par1-100col/image_extension_copy/item_1.coreimg.png/1680590703227-Sagliginicinkesfet_Gorsel+4-04.png</v>
+      </c>
+      <c r="B61">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/_jcr_content/body/column_control_24924/par1-100col/image_extension_copy/item_2.coreimg.png/1680590719125-Sagliginicinkesfet_Gorsel+4-08.png</v>
+      </c>
+      <c r="B62">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/_jcr_content/footer/global_footer_copy_c/column-control/par1-100col/column_control_17824/par3-255025col/image_extension/item_2.coreimg.png/1674202233881-logo_abbvie.png</v>
+      </c>
+      <c r="B63">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/_jcr_content/body/column_control_copy/par1-100col/carousel_copy_copy/item_1673267402020/par1-100col/image_extension/item_1.coreimg.png/1700119817398-Sagliginicinkesfet_Gorsel+4-24.png</v>
+      </c>
+      <c r="B64">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/_jcr_content/body/column_control/par1-100col/carousel_copy_copy/item_1673267277314/par1-100col/image_extension/item_2.coreimg.png/1678694109017-Sagliginicinkesfet_Gorsel+3-02.png</v>
+      </c>
+      <c r="B65">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/_jcr_content/body/column_control_copy/par1-100col/carousel_copy_copy/item_1673267254474/par1-100col/image_extension/item_1.coreimg.png/1700119817973-Sagliginicinkesfet_Gorsel+4-23.png</v>
+      </c>
+      <c r="B66">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://www.sagliginicinkesfet.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-base.min.js</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://www.sagliginicinkesfet.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/assets/resources/fonts/bootstrap-icons.woff2?856008caa5eb66df68595e734e59580d</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://www.sagliginicinkesfet.com/etc.clientlibs/abbvie-sitegenerator-ous/clientlibs/clientlib-site.min.js</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/jcr%3acontent/header/column_control_copy/par1-100col/global_header/image-extension/item_2.coreimg.jpg/1683821573213.jpg</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/jcr%3acontent/body/column_control_249240009/par1-100col/image_extension_copy/item_1.coreimg.png/1680590761009.png</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://consent.trustarc.com/v2/notice/htsj96</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://www.sagliginicinkesfet.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/jcr%3acontent/body/column_control/par1-100col/carousel_copy_copy/item_1673267402020/par1-100col/image_extension/item_3.coreimg.png/1680590668181.png</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/jcr%3acontent/body/column_control/par1-100col/carousel_copy_copy/item_1673267277314/par1-100col/image_extension/item_2.coreimg.png/1678694218871.png</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/jcr%3acontent/body/column_control_copy/par1-100col/carousel_copy_copy/item_1673267277314/par1-100col/image_extension/item_3.coreimg.png/1700120648046.png</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/jcr%3acontent/body/column_control_copy/par1-100col/carousel_copy_copy/item_1673267402020/par1-100col/image_extension/item_1.coreimg.png/1700120658528.png</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://consent.trustarc.com/v2/asset/15:45:33.593zyx5bx_AbbVieID-logo.png</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=htsj96&amp;referer=&amp;fullURL=https%3A%2F%2Fwww.sagliginicinkesfet.com%2Fanasayfa.html&amp;category=</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=htsj96&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.49022050041780973&amp;session=03d399fb-664d-4037-919d-592f81c05883&amp;userType=NEW</v>
+      </c>
+      <c r="B83">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=htsj96&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.035448106268630264&amp;session=03d399fb-664d-4037-919d-592f81c05883&amp;userType=NEW</v>
+      </c>
+      <c r="B84">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/jcr%3acontent/body/column_control_618754938/par2-176617col/column_control_copy/par1-100col/image_extension/item_1.coreimg.png/1679057514089.png</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/jcr%3acontent/body/column_control_24924/par1-100col/image_extension_copy/item_2.coreimg.png/1680590800967.png</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/jcr%3acontent/footer/global_footer_copy_c/column-control/par1-100col/column_control_17824/par3-255025col/image_extension/item_2.coreimg.png/1674202248901.png</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://www.sagliginicinkesfet.com/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/jcr%3acontent/body/column_control_copy/par1-100col/carousel_copy_copy/item_1673267254474/par1-100col/image_extension/item_1.coreimg.png/1700120635612.png</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://www.sagliginicinkesfet.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-sitegenerator-ous/sagliginicinkesfet/tr/tr/anasayfa/jcr:content</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B46"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B91"/>
   </ignoredErrors>
 </worksheet>
 </file>